--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ27274022" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ27548570" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ27832144" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ28112685" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ28426979" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ28727532" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29022766" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ29283301" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ29569594" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ41855993" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ42111615" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ42378456" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ42686509" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ42969161" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ43254482" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ43551320" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ43842232" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ44136942" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3624.524250528623</v>
+        <v>3638.652834994029</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01747675277130716</v>
+        <v>0.01698279241839502</v>
       </c>
     </row>
     <row r="3">
@@ -479,205 +479,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1332.648877247551</v>
+        <v>-1369.65282354671</v>
       </c>
       <c r="C3" t="n">
-        <v>0.08689658919054087</v>
+        <v>0.0760299166557287</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1434.772468888686</v>
+        <v>-1264.479188193743</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0698525340322913</v>
+        <v>0.1018102823260627</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1268.563828077521</v>
+        <v>-699.4092456683604</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1008269918523816</v>
+        <v>0.6309124507460537</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-702.9651884856095</v>
+        <v>39.29086849115637</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6292681141738387</v>
+        <v>0.5874238695717738</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>39.24145560789336</v>
+        <v>-736.341159016231</v>
       </c>
       <c r="C7" t="n">
-        <v>0.587985700017633</v>
+        <v>2.923286218575594e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-736.3985937864584</v>
+        <v>-15.26010779201732</v>
       </c>
       <c r="C8" t="n">
-        <v>2.932291396185268e-05</v>
+        <v>0.039210807376137</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-15.59835529549755</v>
+        <v>174.7536953797141</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03646791095772355</v>
+        <v>0.07470074605815623</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.3044027958972</v>
+        <v>951.9878470048891</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07744107593360759</v>
+        <v>4.58417351693328e-42</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>953.0723434673832</v>
+        <v>0.01119673410054478</v>
       </c>
       <c r="C11" t="n">
-        <v>4.597174478059836e-42</v>
+        <v>0.9026263421950722</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01142763462804809</v>
+        <v>6.828144375898594e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9006549991880656</v>
+        <v>0.4954978731571853</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.928240962491434e-05</v>
+        <v>-0.5563834755371175</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4894603525245766</v>
+        <v>0.9506850322480561</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-0.4046316371548255</v>
+        <v>12.4695390778757</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9641696118462374</v>
+        <v>0.1538365183433958</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>12.71500252602559</v>
+        <v>-1709.159236516005</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1471234226736292</v>
+        <v>0.09972008138785107</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1722.680668230459</v>
+        <v>-353.4752902243698</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09735307591200287</v>
+        <v>0.7030947510595598</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-356.4240385525424</v>
+        <v>3164.789976054155</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7008168991271826</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3158.246544697259</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3152539810090872</v>
+        <v>0.3141269533134415</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3727.77291665982</v>
+        <v>3744.943209634528</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01431371455405869</v>
+        <v>0.0138125088537077</v>
       </c>
     </row>
     <row r="3">
@@ -736,205 +723,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1008.586134468927</v>
+        <v>-1047.299221969957</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2098660865406997</v>
+        <v>0.1896185586658746</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1114.291976217663</v>
+        <v>-1092.598839693754</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1719218089847263</v>
+        <v>0.1719918743107381</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1097.734687541122</v>
+        <v>-594.0529278875583</v>
       </c>
       <c r="C5" t="n">
-        <v>0.170141912948495</v>
+        <v>0.705504905006638</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-596.8699278606259</v>
+        <v>13.81289907781062</v>
       </c>
       <c r="C6" t="n">
-        <v>0.704244046040573</v>
+        <v>0.8430592172069523</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.93474446677655</v>
+        <v>-904.3108529456339</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8417317335793914</v>
+        <v>1.540076446846527e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-905.5034778076938</v>
+        <v>-15.9690034034393</v>
       </c>
       <c r="C8" t="n">
-        <v>1.500122446102203e-07</v>
+        <v>0.0259645352734793</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-16.31965470337719</v>
+        <v>319.3097131266796</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02391295616383565</v>
+        <v>0.0009638375923983821</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>317.0353940704991</v>
+        <v>880.3798165286887</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001071246522585235</v>
+        <v>1.440451562561313e-39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>881.2800157007432</v>
+        <v>-0.01731216284370645</v>
       </c>
       <c r="C11" t="n">
-        <v>1.39666383018601e-39</v>
+        <v>0.8444091068288002</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.01657348573092677</v>
+        <v>9.31364349592915e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8510350584484743</v>
+        <v>0.3357826154339056</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.317560320050703e-05</v>
+        <v>-2.381789617945415</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3356948367162584</v>
+        <v>0.7826635912525081</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.090439434289854</v>
+        <v>10.88576141994093</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8093934088417803</v>
+        <v>0.1984363839012938</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>11.20491658175029</v>
+        <v>-1814.480288523157</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1876184253841118</v>
+        <v>0.06234648904462039</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1826.99211903485</v>
+        <v>138.7050250693068</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06075613570376946</v>
+        <v>0.880916997025023</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>123.596782938049</v>
+        <v>1407.222801488189</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8939175256316785</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>1369.565838964177</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6512258774908688</v>
+        <v>0.6420605287176355</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3491.423557411579</v>
+        <v>3483.59249635467</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02437201844169618</v>
+        <v>0.02461394594042082</v>
       </c>
     </row>
     <row r="3">
@@ -993,205 +967,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1538.375038686106</v>
+        <v>-1517.678223072824</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05713166806428439</v>
+        <v>0.05864578257584443</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1481.431970423383</v>
+        <v>-1302.383292509361</v>
       </c>
       <c r="C4" t="n">
-        <v>0.0710096422078494</v>
+        <v>0.1053600558153619</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1299.585101379438</v>
+        <v>-841.9012668141462</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1062508953633087</v>
+        <v>0.5684508003012918</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-840.059184205962</v>
+        <v>76.11127766440023</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5694086801077309</v>
+        <v>0.2899240804156847</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>76.17579381399304</v>
+        <v>-671.3944131024479</v>
       </c>
       <c r="C7" t="n">
-        <v>0.289650770749185</v>
+        <v>0.0001437653110684254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-670.9033098548052</v>
+        <v>-14.7977043888641</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0001461763804458537</v>
+        <v>0.04693416404457175</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-14.62761937017439</v>
+        <v>157.8457075509961</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05088497217832127</v>
+        <v>0.1021819938852647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>158.5875599895118</v>
+        <v>812.9901725642037</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1008933639859665</v>
+        <v>8.079695379493364e-32</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>812.5326169723087</v>
+        <v>0.06205208831325701</v>
       </c>
       <c r="C11" t="n">
-        <v>9.6624343582428e-32</v>
+        <v>0.498395089328538</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.06171848075496064</v>
+        <v>3.252399535343906e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.500885282130803</v>
+        <v>0.7439155850558133</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.203192432861336e-05</v>
+        <v>-7.516524130974434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7477882652763379</v>
+        <v>0.4036059165281571</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.632580986984317</v>
+        <v>20.39869633013677</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3973718709795806</v>
+        <v>0.02046042811896114</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>20.26167724599528</v>
+        <v>-706.1185687544507</v>
       </c>
       <c r="C15" t="n">
-        <v>0.02170156380183282</v>
+        <v>0.4798977026779392</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-702.4563830275638</v>
+        <v>-177.4352051076443</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4823613467783855</v>
+        <v>0.8488951481589524</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-171.5997640429472</v>
+        <v>-464.0436401758109</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8539088826086834</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-439.8654319322361</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.888397071974611</v>
+        <v>0.8821982609631198</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2512.923350018853</v>
+        <v>2544.552030914512</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09797462216855293</v>
+        <v>0.09374148869665479</v>
       </c>
     </row>
     <row r="3">
@@ -1250,205 +1211,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1490.300195636888</v>
+        <v>-1586.618693618811</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05105240859975285</v>
+        <v>0.0361805159243273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1746.525103120462</v>
+        <v>-1386.166266123097</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02427997500870053</v>
+        <v>0.06792462913969681</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1400.145969678454</v>
+        <v>-2095.387205753524</v>
       </c>
       <c r="C5" t="n">
-        <v>0.06525145623655022</v>
+        <v>0.2414498588287494</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2109.054200249611</v>
+        <v>44.64679321568164</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2384183523857659</v>
+        <v>0.528015184799368</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>44.3034808096164</v>
+        <v>-470.3955314938613</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5312050183684673</v>
+        <v>0.006677235153121405</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-470.1208226891625</v>
+        <v>-22.27508373549937</v>
       </c>
       <c r="C8" t="n">
-        <v>0.00671025661518766</v>
+        <v>0.002620229999182801</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-23.33677710759346</v>
+        <v>185.8921101331124</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001820844234995652</v>
+        <v>0.05269175609285452</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>182.4465395254248</v>
+        <v>915.9100697761552</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05740414692105977</v>
+        <v>3.996397782160026e-39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>918.2293802855493</v>
+        <v>0.04650588635577991</v>
       </c>
       <c r="C11" t="n">
-        <v>2.933568985745675e-39</v>
+        <v>0.6003649818948382</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04664203254785138</v>
+        <v>2.049633460489216e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5993058513040563</v>
+        <v>0.8343740133890775</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.317258501887136e-05</v>
+        <v>-6.072309026308421</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8132012245367195</v>
+        <v>0.4943339259376321</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-5.674001988349309</v>
+        <v>21.8719032348319</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5235308808766086</v>
+        <v>0.01186271380340583</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>22.52110786180108</v>
+        <v>-357.0167681295789</v>
       </c>
       <c r="C15" t="n">
-        <v>0.009794124614903773</v>
+        <v>0.7159836781916556</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-358.9236631442325</v>
+        <v>506.8558600655472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7145385558328237</v>
+        <v>0.5779420311953893</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>508.2600764394982</v>
+        <v>4054.498999206266</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5768964843755429</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3992.41749723343</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1928378017286254</v>
+        <v>0.1859073868313777</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2270.006309372121</v>
+        <v>2280.009415894457</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1427941801053727</v>
+        <v>0.1405984939154685</v>
       </c>
     </row>
     <row r="3">
@@ -1507,205 +1455,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1642.763613897701</v>
+        <v>-1657.260166108873</v>
       </c>
       <c r="C3" t="n">
-        <v>0.04296406275293024</v>
+        <v>0.03980901423578045</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1684.641710022602</v>
+        <v>-1393.136995267652</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04113578308355859</v>
+        <v>0.08503500480076052</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1395.796986539875</v>
+        <v>-1327.95388890642</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08459566799720221</v>
+        <v>0.3709299345635763</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1329.369877438743</v>
+        <v>-14.92341634636364</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3705617081090403</v>
+        <v>0.8369791751143916</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-15.06185973009352</v>
+        <v>-765.0092295984597</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8355452690848345</v>
+        <v>1.540680392858736e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-764.7606788557825</v>
+        <v>-16.21301719750657</v>
       </c>
       <c r="C8" t="n">
-        <v>1.56013245283098e-05</v>
+        <v>0.02788351854205938</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-16.36743549924558</v>
+        <v>193.0668534370867</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02781608070898647</v>
+        <v>0.04939962874092067</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>192.203453190392</v>
+        <v>892.1224772630419</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05084689965237107</v>
+        <v>6.387801014481646e-36</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>892.7734595063514</v>
+        <v>0.04758726563977327</v>
       </c>
       <c r="C11" t="n">
-        <v>7.785042649632053e-36</v>
+        <v>0.603145788724011</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04778296691733513</v>
+        <v>3.205978980534413e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6017907930126126</v>
+        <v>0.7501720587952617</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3.246575413597868e-05</v>
+        <v>-2.616951104504272</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7472637762661366</v>
+        <v>0.7716252782923352</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-2.506698849969644</v>
+        <v>30.31172132364443</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7816947259048274</v>
+        <v>0.0008059016524608021</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.44732092097107</v>
+        <v>-1032.534802418737</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008091576027461736</v>
+        <v>0.2991981855878416</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1037.644594852529</v>
+        <v>118.2934711713158</v>
       </c>
       <c r="C16" t="n">
-        <v>0.297204547201987</v>
+        <v>0.8997135931662746</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>115.6310218645866</v>
+        <v>3616.142364698709</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9020020842119086</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3603.042632522084</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2511141847543291</v>
+        <v>0.2490982400249459</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3542.976021255328</v>
+        <v>3559.319868890514</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02426162588780426</v>
+        <v>0.02350232089647648</v>
       </c>
     </row>
     <row r="3">
@@ -1764,205 +1699,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2199.022536822453</v>
+        <v>-2229.941919457454</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009947733254306644</v>
+        <v>0.008483624311866899</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2282.691954287127</v>
+        <v>-2061.7639355445</v>
       </c>
       <c r="C4" t="n">
-        <v>0.008244281944721566</v>
+        <v>0.01506231815797469</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2064.963533597387</v>
+        <v>-564.7334029969102</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01493953085783106</v>
+        <v>0.7143955421682999</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-567.6000604242677</v>
+        <v>13.88939464407085</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7130851002386929</v>
+        <v>0.842158657150318</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>13.93770688424215</v>
+        <v>-872.1991516146096</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8416573860299356</v>
+        <v>4.9408157014823e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-872.7190671995661</v>
+        <v>-17.12482605806545</v>
       </c>
       <c r="C8" t="n">
-        <v>4.90351699992238e-07</v>
+        <v>0.01964653506816648</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-17.39417978815619</v>
+        <v>68.36169290790551</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01862500003196859</v>
+        <v>0.4783604015518713</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>66.70052347938235</v>
+        <v>855.0820011059993</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4898827782612603</v>
+        <v>4.105490640989786e-35</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>855.6744502744489</v>
+        <v>0.01286750835649634</v>
       </c>
       <c r="C11" t="n">
-        <v>4.085926860301844e-35</v>
+        <v>0.8856311498631454</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.01294655807392999</v>
+        <v>2.426092935838132e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8849632037589206</v>
+        <v>0.8081808868026581</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>2.556108661331073e-05</v>
+        <v>1.134640358413218</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7983389266938774</v>
+        <v>0.8981654149708815</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.336134737712642</v>
+        <v>29.64109969949512</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8805499604459833</v>
+        <v>0.000617336484748202</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>29.89324437058097</v>
+        <v>-1679.259139639723</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005878037342482756</v>
+        <v>0.1103254781915804</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1691.541670936311</v>
+        <v>186.3125494388462</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1080825039623499</v>
+        <v>0.8377887604295955</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>178.9514061837346</v>
+        <v>2436.142506385303</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8442045472866405</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>2399.139311062423</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.4342276337621469</v>
+        <v>0.4267120081402005</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2887.934996498688</v>
+        <v>2903.129741706333</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05892881223954038</v>
+        <v>0.0575450974240965</v>
       </c>
     </row>
     <row r="3">
@@ -2021,205 +1943,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1404.213333543238</v>
+        <v>-1466.669936565396</v>
       </c>
       <c r="C3" t="n">
-        <v>0.07035399537625485</v>
+        <v>0.05693856088349598</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1590.860923341127</v>
+        <v>-1387.967976953508</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04458706385578354</v>
+        <v>0.07262742994991206</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1399.864680624627</v>
+        <v>-1020.490642004997</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07032784449597727</v>
+        <v>0.4831997311632426</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1021.277577294897</v>
+        <v>37.54514759738232</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4829298728531036</v>
+        <v>0.6025118454194778</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>36.61187090304549</v>
+        <v>-777.0838793927285</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6116801451767533</v>
+        <v>1.129123323419345e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-778.2207075244419</v>
+        <v>-21.27954352522274</v>
       </c>
       <c r="C8" t="n">
-        <v>1.100840236942191e-05</v>
+        <v>0.004362997322922587</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-21.94905618809977</v>
+        <v>174.4057940597489</v>
       </c>
       <c r="C9" t="n">
-        <v>0.003564884125719626</v>
+        <v>0.07523553265421726</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>171.3945542313851</v>
+        <v>886.1299969795255</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08076274973397864</v>
+        <v>5.067975627306219e-37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>887.6558466209478</v>
+        <v>-0.03788083715801817</v>
       </c>
       <c r="C11" t="n">
-        <v>4.332724240454216e-37</v>
+        <v>0.6814812392271163</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.03838908406574983</v>
+        <v>0.0001003673679325846</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6775039031954337</v>
+        <v>0.3211168940516788</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0001028921882819531</v>
+        <v>-4.102081607016665</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3094996778371406</v>
+        <v>0.649229568085587</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.671722944226931</v>
+        <v>25.12325862512182</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6847050049067681</v>
+        <v>0.004411213318545549</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.50328415671963</v>
+        <v>-1124.224311892854</v>
       </c>
       <c r="C15" t="n">
-        <v>0.00392826640642665</v>
+        <v>0.2763046419291547</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1146.468054989967</v>
+        <v>808.8757794975227</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2672315179676025</v>
+        <v>0.4045735037256027</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>807.8755198675143</v>
+        <v>3663.111152446657</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4052274418616317</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>3609.007465412113</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.2518074384464762</v>
+        <v>0.2445473501098281</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1613.549850195455</v>
+        <v>1625.85782612398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3118327289005488</v>
+        <v>0.3079355261762562</v>
       </c>
     </row>
     <row r="3">
@@ -2278,205 +2187,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-840.7986256312213</v>
+        <v>-877.1228922690384</v>
       </c>
       <c r="C3" t="n">
-        <v>0.357578290981924</v>
+        <v>0.3343217246707771</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-938.8932671552578</v>
+        <v>-528.734898463699</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3094125831407633</v>
+        <v>0.5613947993175031</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-533.4241530349981</v>
+        <v>-510.4714561818474</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5580622422119136</v>
+        <v>0.7589611084904179</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-510.6315302114924</v>
+        <v>-19.20306194197352</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7589450545697354</v>
+        <v>0.7888589406266554</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-19.60478501147944</v>
+        <v>-744.508049258334</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7846249112833497</v>
+        <v>2.137958406496585e-05</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-745.3825707234165</v>
+        <v>-16.21311762031117</v>
       </c>
       <c r="C8" t="n">
-        <v>2.104381722159948e-05</v>
+        <v>0.02701623872437182</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-16.54310751266968</v>
+        <v>175.1467489147708</v>
       </c>
       <c r="C9" t="n">
-        <v>0.02512537715563041</v>
+        <v>0.0712785686647972</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>173.5996051210701</v>
+        <v>916.7548643132619</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07414488546671798</v>
+        <v>6.467184415638248e-40</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>918.0105090092097</v>
+        <v>0.05845086001922031</v>
       </c>
       <c r="C11" t="n">
-        <v>6.604199338882214e-40</v>
+        <v>0.5181607264366057</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0586644789532835</v>
+        <v>4.938097514272775e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5167438508994464</v>
+        <v>0.6179160668013814</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.03156633865898e-05</v>
+        <v>6.407921032249063</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6114813504419045</v>
+        <v>0.4661550797636144</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.649085829625067</v>
+        <v>27.08089263460091</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4508756219234957</v>
+        <v>0.001593005682066504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.30581546625631</v>
+        <v>-1449.577933736494</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0014997290697537</v>
+        <v>0.1476907066349397</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1464.499061325879</v>
+        <v>-718.4999977254764</v>
       </c>
       <c r="C16" t="n">
-        <v>0.14398551483824</v>
+        <v>0.4394925550134775</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-729.4816412562319</v>
+        <v>-789.4530122976207</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4328762828670548</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-799.5383181571233</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.7960889425807999</v>
+        <v>0.7985495722237956</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4811.619151781191</v>
+        <v>4821.935629821432</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001885899673954367</v>
+        <v>0.001826162160152098</v>
       </c>
     </row>
     <row r="3">
@@ -2535,205 +2431,192 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2153.787601450426</v>
+        <v>-2170.930586225993</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01072142977740831</v>
+        <v>0.009650466383105868</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.Secondary+BAC]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2202.119341597707</v>
+        <v>-1901.871349191879</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01006494329523527</v>
+        <v>0.02363993296138751</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Unknown/Other]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1904.741659483682</v>
+        <v>-1392.825904060503</v>
       </c>
       <c r="C5" t="n">
-        <v>0.02349198203952405</v>
+        <v>0.3410447332265636</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1395.338626942995</v>
+        <v>8.028350777451053</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3403278264951158</v>
+        <v>0.910293796031157</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>8.012250641697737</v>
+        <v>-815.8803444217452</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9104974764135101</v>
+        <v>2.125198083814976e-06</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-815.6422990923883</v>
+        <v>-10.72784275300838</v>
       </c>
       <c r="C8" t="n">
-        <v>2.15484373428952e-06</v>
+        <v>0.1415498674538774</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-10.91870450148522</v>
+        <v>61.09088565257527</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1385527532058929</v>
+        <v>0.5280007311086685</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>60.29732754913577</v>
+        <v>894.941279143457</v>
       </c>
       <c r="C10" t="n">
-        <v>0.5338829094444719</v>
+        <v>3.000817645877259e-39</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>895.2592301273842</v>
+        <v>-0.0006497036940417561</v>
       </c>
       <c r="C11" t="n">
-        <v>3.133305141860875e-39</v>
+        <v>0.9941947634371305</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-0.0001702297658984914</v>
+        <v>9.853995750048333e-05</v>
       </c>
       <c r="C12" t="n">
-        <v>0.9984800001155086</v>
+        <v>0.316481858171823</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>9.852132270109836e-05</v>
+        <v>-7.990429336024811</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3167064887530198</v>
+        <v>0.3599241245457562</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-7.881379212840659</v>
+        <v>15.75607436811461</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3677262929092301</v>
+        <v>0.06702254152399904</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>15.91705091771998</v>
+        <v>-2919.450538190678</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06570649031822615</v>
+        <v>0.004672500472852446</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2920.517857210951</v>
+        <v>201.5210908373852</v>
       </c>
       <c r="C16" t="n">
-        <v>0.004669418868218265</v>
+        <v>0.8248023483001068</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>bike_lane_share_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>197.0265363929772</v>
+        <v>4633.525585547564</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8287541159951698</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>4625.09545539495</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.1302158502295019</v>
+        <v>0.1293700325087289</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ41855993" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ42111615" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ42378456" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ42686509" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ42969161" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ43254482" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ43551320" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ43842232" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ44136942" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ08974452" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ09194252" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ09422416" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ09627437" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ09823589" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ10032611" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ10238631" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ10440655" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ10644376" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,205 +466,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3638.652834994029</v>
+        <v>5705.956255674148</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01698279241839502</v>
+        <v>0.006471042880512402</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1369.65282354671</v>
+        <v>620.0786174113043</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0760299166557287</v>
+        <v>0.6937226549195461</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1264.479188193743</v>
+        <v>-767.0182632936534</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1018102823260627</v>
+        <v>0.5866451915609676</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-699.4092456683604</v>
+        <v>-672.6010872226663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6309124507460537</v>
+        <v>0.6334690357727504</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>39.29086849115637</v>
+        <v>-4281.182111053372</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5874238695717738</v>
+        <v>1.762255662343111e-07</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-736.341159016231</v>
+        <v>-3911.401961968803</v>
       </c>
       <c r="C7" t="n">
-        <v>2.923286218575594e-05</v>
+        <v>8.061567276866767e-07</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.26010779201732</v>
+        <v>87.24374819528239</v>
       </c>
       <c r="C8" t="n">
-        <v>0.039210807376137</v>
+        <v>0.2346672639172685</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>174.7536953797141</v>
+        <v>-732.0222202150586</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07470074605815623</v>
+        <v>2.849804689972911e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>951.9878470048891</v>
+        <v>-12.6508528578513</v>
       </c>
       <c r="C10" t="n">
-        <v>4.58417351693328e-42</v>
+        <v>0.08555537900937248</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01119673410054478</v>
+        <v>188.0031570827565</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9026263421950722</v>
+        <v>0.05392927108304432</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>6.828144375898594e-05</v>
+        <v>946.196651871971</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4954978731571853</v>
+        <v>3.73016558035957e-42</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.5563834755371175</v>
+        <v>0.0009153130696142736</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9506850322480561</v>
+        <v>0.9919530804930832</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>12.4695390778757</v>
+        <v>7.194548136279819e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1538365183433958</v>
+        <v>0.4689258349414102</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1709.159236516005</v>
+        <v>2.110680647264893</v>
       </c>
       <c r="C15" t="n">
-        <v>0.09972008138785107</v>
+        <v>0.8137750584710559</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-353.4752902243698</v>
+        <v>13.71068305218201</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7030947510595598</v>
+        <v>0.1153474773521193</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1685.891628989182</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1022206548160452</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-243.7067556322393</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7912147820858623</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>3164.789976054155</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.3141269533134415</v>
+      <c r="B19" t="n">
+        <v>2875.596182427542</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3579970034156897</v>
       </c>
     </row>
   </sheetData>
@@ -678,7 +704,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -710,205 +736,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3744.943209634528</v>
+        <v>2971.204119603321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0138125088537077</v>
+        <v>0.1418826045353619</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1047.299221969957</v>
+        <v>517.4803710481592</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1896185586658746</v>
+        <v>0.7425992082251018</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1092.598839693754</v>
+        <v>-558.7966263894505</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1719918743107381</v>
+        <v>0.6849144672838061</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-594.0529278875583</v>
+        <v>-593.7827764090453</v>
       </c>
       <c r="C5" t="n">
-        <v>0.705504905006638</v>
+        <v>0.6665600329848409</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.81289907781062</v>
+        <v>-1011.936546107465</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8430592172069523</v>
+        <v>0.1690109546229872</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-904.3108529456339</v>
+        <v>-772.9623071142133</v>
       </c>
       <c r="C7" t="n">
-        <v>1.540076446846527e-07</v>
+        <v>0.2742081020771847</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.9690034034393</v>
+        <v>33.72138699383011</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0259645352734793</v>
+        <v>0.6361564783083677</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>319.3097131266796</v>
+        <v>-905.4841842993859</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0009638375923983821</v>
+        <v>1.557385622905376e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>880.3798165286887</v>
+        <v>-15.94186116341721</v>
       </c>
       <c r="C10" t="n">
-        <v>1.440451562561313e-39</v>
+        <v>0.02633095817427787</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.01731216284370645</v>
+        <v>324.404063098086</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8444091068288002</v>
+        <v>0.0008234352268144832</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.31364349592915e-05</v>
+        <v>874.3301193433604</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3357826154339056</v>
+        <v>7.285006534023662e-39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.381789617945415</v>
+        <v>-0.01297374000572531</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7826635912525081</v>
+        <v>0.8831295529731762</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>10.88576141994093</v>
+        <v>8.944369636368953e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1984363839012938</v>
+        <v>0.3555226543508384</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1814.480288523157</v>
+        <v>-1.759151497702486</v>
       </c>
       <c r="C15" t="n">
-        <v>0.06234648904462039</v>
+        <v>0.8387912215525581</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>138.7050250693068</v>
+        <v>11.7612167007617</v>
       </c>
       <c r="C16" t="n">
-        <v>0.880916997025023</v>
+        <v>0.1656476295383076</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1747.806791376361</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07347815025993081</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>147.9015717407184</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8731799701069407</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>1407.222801488189</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.6420605287176355</v>
+      <c r="B19" t="n">
+        <v>1177.678110712885</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6976076766614725</v>
       </c>
     </row>
   </sheetData>
@@ -922,7 +974,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -954,205 +1006,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3483.59249635467</v>
+        <v>2238.288810658404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02461394594042082</v>
+        <v>0.28272577374078</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1517.678223072824</v>
+        <v>723.8200851535037</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05864578257584443</v>
+        <v>0.6513555087146595</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1302.383292509361</v>
+        <v>-743.7251363916969</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1053600558153619</v>
+        <v>0.599820717784738</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-841.9012668141462</v>
+        <v>-524.4674365395103</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5684508003012918</v>
+        <v>0.7116417033405259</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>76.11127766440023</v>
+        <v>-640.391611579772</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2899240804156847</v>
+        <v>0.374615923743343</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-671.3944131024479</v>
+        <v>-339.7504817510485</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0001437653110684254</v>
+        <v>0.622570653996098</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-14.7977043888641</v>
+        <v>95.54704016395098</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04693416404457175</v>
+        <v>0.1929561183996466</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>157.8457075509961</v>
+        <v>-658.4037230193858</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1021819938852647</v>
+        <v>0.0001994666915021765</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>812.9901725642037</v>
+        <v>-14.7605778383804</v>
       </c>
       <c r="C10" t="n">
-        <v>8.079695379493364e-32</v>
+        <v>0.04740952803896632</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.06205208831325701</v>
+        <v>159.8837852615528</v>
       </c>
       <c r="C11" t="n">
-        <v>0.498395089328538</v>
+        <v>0.0995078996944838</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.252399535343906e-05</v>
+        <v>812.6144485869727</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7439155850558133</v>
+        <v>1.07857658959971e-31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.516524130974434</v>
+        <v>0.05916103884301432</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4036059165281571</v>
+        <v>0.5178038430516134</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.39869633013677</v>
+        <v>3.601408938691423e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02046042811896114</v>
+        <v>0.7172313236722963</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-706.1185687544507</v>
+        <v>-6.797258992145732</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4798977026779392</v>
+        <v>0.4507043489986007</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-177.4352051076443</v>
+        <v>21.15152215323148</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8488951481589524</v>
+        <v>0.01669387848025958</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-712.884030232795</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.4771209240832703</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-125.5869195313855</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8927039344573175</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-464.0436401758109</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.8821982609631198</v>
+      <c r="B19" t="n">
+        <v>-648.6898319159345</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8363497050999875</v>
       </c>
     </row>
   </sheetData>
@@ -1166,7 +1244,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1198,205 +1276,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2544.552030914512</v>
+        <v>-962.9180500736556</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09374148869665479</v>
+        <v>0.7019883216041874</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1586.618693618811</v>
+        <v>3210.295122532678</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0361805159243273</v>
+        <v>0.1467087714165947</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1386.166266123097</v>
+        <v>1657.122604676289</v>
       </c>
       <c r="C4" t="n">
-        <v>0.06792462913969681</v>
+        <v>0.4298110567506942</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-2095.387205753524</v>
+        <v>1858.945641878318</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2414498588287494</v>
+        <v>0.3758478500070834</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>44.64679321568164</v>
+        <v>-663.8197434717466</v>
       </c>
       <c r="C6" t="n">
-        <v>0.528015184799368</v>
+        <v>0.3648589615622777</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-470.3955314938613</v>
+        <v>-353.4330452659489</v>
       </c>
       <c r="C7" t="n">
-        <v>0.006677235153121405</v>
+        <v>0.6153880640723609</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-22.27508373549937</v>
+        <v>62.6813161835085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.002620229999182801</v>
+        <v>0.3855501118050445</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>185.8921101331124</v>
+        <v>-459.8794917949842</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05269175609285452</v>
+        <v>0.008038400459471637</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>915.9100697761552</v>
+        <v>-22.10363905486413</v>
       </c>
       <c r="C10" t="n">
-        <v>3.996397782160026e-39</v>
+        <v>0.002806469372078432</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04650588635577991</v>
+        <v>188.7666076678642</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6003649818948382</v>
+        <v>0.04992304659365807</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.049633460489216e-05</v>
+        <v>915.4740381720353</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8343740133890775</v>
+        <v>8.147862662226763e-39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-6.072309026308421</v>
+        <v>0.04546613657323023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4943339259376321</v>
+        <v>0.6078822256792855</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>21.8719032348319</v>
+        <v>2.257985185900844e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01186271380340583</v>
+        <v>0.8175108511320086</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-357.0167681295789</v>
+        <v>-5.389294095188369</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7159836781916556</v>
+        <v>0.5441652364452059</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>506.8558600655472</v>
+        <v>22.54493417945308</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5779420311953893</v>
+        <v>0.009627624198253304</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-298.9257700531919</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.761263702990181</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>577.6994594343406</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.5261703833946338</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4054.498999206266</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1859073868313777</v>
+      <c r="B19" t="n">
+        <v>3812.482078886899</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.2151853457701389</v>
       </c>
     </row>
   </sheetData>
@@ -1410,7 +1514,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1442,205 +1546,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2280.009415894457</v>
+        <v>1087.04462038417</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1405984939154685</v>
+        <v>0.6075349063289598</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1657.260166108873</v>
+        <v>1240.343008236481</v>
       </c>
       <c r="C3" t="n">
-        <v>0.03980901423578045</v>
+        <v>0.4409883429282825</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1393.136995267652</v>
+        <v>-390.2164637107901</v>
       </c>
       <c r="C4" t="n">
-        <v>0.08503500480076052</v>
+        <v>0.7840844140619847</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1327.95388890642</v>
+        <v>-117.9411639136122</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3709299345635763</v>
+        <v>0.9340572861678477</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-14.92341634636364</v>
+        <v>-1710.141283455174</v>
       </c>
       <c r="C6" t="n">
-        <v>0.8369791751143916</v>
+        <v>0.01507679082960434</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-765.0092295984597</v>
+        <v>-1186.419211899391</v>
       </c>
       <c r="C7" t="n">
-        <v>1.540680392858736e-05</v>
+        <v>0.07681372466204488</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.21301719750657</v>
+        <v>24.21281098292347</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02788351854205938</v>
+        <v>0.7428524876779038</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>193.0668534370867</v>
+        <v>-766.2741028002386</v>
       </c>
       <c r="C9" t="n">
-        <v>0.04939962874092067</v>
+        <v>1.463201795771607e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>892.1224772630419</v>
+        <v>-15.81168820669041</v>
       </c>
       <c r="C10" t="n">
-        <v>6.387801014481646e-36</v>
+        <v>0.03164582706258822</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.04758726563977327</v>
+        <v>205.9176238682899</v>
       </c>
       <c r="C11" t="n">
-        <v>0.603145788724011</v>
+        <v>0.03650954272789097</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3.205978980534413e-05</v>
+        <v>889.3280014265523</v>
       </c>
       <c r="C12" t="n">
-        <v>0.7501720587952617</v>
+        <v>1.412351434157667e-35</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-2.616951104504272</v>
+        <v>0.04638940149675023</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7716252782923352</v>
+        <v>0.6110093595304464</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>30.31172132364443</v>
+        <v>3.075360182235486e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0008059016524608021</v>
+        <v>0.7593529643464272</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1032.534802418737</v>
+        <v>-1.169757551273947</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2991981855878416</v>
+        <v>0.8967922535944275</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>118.2934711713158</v>
+        <v>31.91658879973383</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8997135931662746</v>
+        <v>0.0004288915680245612</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-947.486088634084</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3411001684423538</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>255.1315202180974</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7854224589076002</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>3616.142364698709</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2490982400249459</v>
+      <c r="B19" t="n">
+        <v>3132.0648207863</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3183983784983765</v>
       </c>
     </row>
   </sheetData>
@@ -1654,7 +1784,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,205 +1816,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3559.319868890514</v>
+        <v>3603.640888172667</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02350232089647648</v>
+        <v>0.09152378930328899</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2229.941919457454</v>
+        <v>162.0598886505243</v>
       </c>
       <c r="C3" t="n">
-        <v>0.008483624311866899</v>
+        <v>0.9238422686113559</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2061.7639355445</v>
+        <v>-1988.572170424025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01506231815797469</v>
+        <v>0.188531801926698</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-564.7334029969102</v>
+        <v>-1805.962222272133</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7143955421682999</v>
+        <v>0.2321874111127512</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>13.88939464407085</v>
+        <v>-1565.615715173758</v>
       </c>
       <c r="C6" t="n">
-        <v>0.842158657150318</v>
+        <v>0.0300714183107951</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-872.1991516146096</v>
+        <v>-1378.744011527601</v>
       </c>
       <c r="C7" t="n">
-        <v>4.9408157014823e-07</v>
+        <v>0.04601188443214888</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-17.12482605806545</v>
+        <v>36.14227613250988</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01964653506816648</v>
+        <v>0.6114648569770784</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>68.36169290790551</v>
+        <v>-880.7271942604651</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4783604015518713</v>
+        <v>3.91454820180948e-07</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>855.0820011059993</v>
+        <v>-16.99940864072073</v>
       </c>
       <c r="C10" t="n">
-        <v>4.105490640989786e-35</v>
+        <v>0.02041289737563938</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01286750835649634</v>
+        <v>84.09936802209955</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8856311498631454</v>
+        <v>0.3849288136480108</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2.426092935838132e-05</v>
+        <v>849.21688459302</v>
       </c>
       <c r="C12" t="n">
-        <v>0.8081808868026581</v>
+        <v>1.160983815632575e-34</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1.134640358413218</v>
+        <v>0.01132754755919805</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8981654149708815</v>
+        <v>0.8991255448633657</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>29.64109969949512</v>
+        <v>2.728317658862452e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.000617336484748202</v>
+        <v>0.7845943387623728</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1679.259139639723</v>
+        <v>1.734287520279237</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1103254781915804</v>
+        <v>0.8449377926344546</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>186.3125494388462</v>
+        <v>30.37256984850789</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8377887604295955</v>
+        <v>0.0004682910215742239</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1548.198458110263</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1415964426412777</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>295.4990738120262</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7453950258858705</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>2436.142506385303</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.4267120081402005</v>
+      <c r="B19" t="n">
+        <v>1892.820472745905</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.5379455513146865</v>
       </c>
     </row>
   </sheetData>
@@ -1898,7 +2054,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1930,205 +2086,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2903.129741706333</v>
+        <v>1667.492402649698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0575450974240965</v>
+        <v>0.4244270190018434</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-1466.669936565396</v>
+        <v>1048.625443435974</v>
       </c>
       <c r="C3" t="n">
-        <v>0.05693856088349598</v>
+        <v>0.5083084125134059</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1387.967976953508</v>
+        <v>-410.6755150680565</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07262742994991206</v>
+        <v>0.7724505265833971</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1020.490642004997</v>
+        <v>-314.2304509603099</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4831997311632426</v>
+        <v>0.8249145123459607</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.54514759738232</v>
+        <v>-1103.279628957597</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6025118454194778</v>
+        <v>0.1395667026553119</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-777.0838793927285</v>
+        <v>-845.4095598750021</v>
       </c>
       <c r="C7" t="n">
-        <v>1.129123323419345e-05</v>
+        <v>0.2363536839079075</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-21.27954352522274</v>
+        <v>57.04725348956116</v>
       </c>
       <c r="C8" t="n">
-        <v>0.004362997322922587</v>
+        <v>0.4367405147366987</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>174.4057940597489</v>
+        <v>-777.395069874953</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07523553265421726</v>
+        <v>1.136459403068022e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>886.1299969795255</v>
+        <v>-20.69203027041258</v>
       </c>
       <c r="C10" t="n">
-        <v>5.067975627306219e-37</v>
+        <v>0.005643880988182599</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.03788083715801817</v>
+        <v>185.8417595899911</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6814812392271163</v>
+        <v>0.05904098459086143</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.0001003673679325846</v>
+        <v>883.1322766060573</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3211168940516788</v>
+        <v>1.175801260341223e-36</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-4.102081607016665</v>
+        <v>-0.03724023592930122</v>
       </c>
       <c r="C13" t="n">
-        <v>0.649229568085587</v>
+        <v>0.6860396641638149</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>25.12325862512182</v>
+        <v>0.0001003433229585861</v>
       </c>
       <c r="C14" t="n">
-        <v>0.004411213318545549</v>
+        <v>0.320680610799756</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1124.224311892854</v>
+        <v>-2.918621700339628</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2763046419291547</v>
+        <v>0.7469564244626271</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>808.8757794975227</v>
+        <v>26.07729400291375</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4045735037256027</v>
+        <v>0.003220390266651215</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1041.501766631232</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.3147255502463364</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>847.7361116563076</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.3820145824525514</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>3663.111152446657</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.2445473501098281</v>
+      <c r="B19" t="n">
+        <v>3224.816664526028</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.3077266935125695</v>
       </c>
     </row>
   </sheetData>
@@ -2142,7 +2324,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2174,205 +2356,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1625.85782612398</v>
+        <v>1512.510859298831</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3079355261762562</v>
+        <v>0.5093109343207751</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-877.1228922690384</v>
+        <v>722.6962128795117</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3343217246707771</v>
+        <v>0.6979832953594959</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-528.734898463699</v>
+        <v>-258.821226950251</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5613947993175031</v>
+        <v>0.8770714243414196</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-510.4714561818474</v>
+        <v>102.945731185534</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7589611084904179</v>
+        <v>0.951027901364585</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-19.20306194197352</v>
+        <v>-1874.922295491788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7888589406266554</v>
+        <v>0.01072768914057577</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-744.508049258334</v>
+        <v>-1509.825713571014</v>
       </c>
       <c r="C7" t="n">
-        <v>2.137958406496585e-05</v>
+        <v>0.03231782058222307</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-16.21311762031117</v>
+        <v>12.3897395949798</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02701623872437182</v>
+        <v>0.8647141788242829</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>175.1467489147708</v>
+        <v>-760.3486753931454</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0712785686647972</v>
+        <v>1.388587591655887e-05</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>916.7548643132619</v>
+        <v>-16.00807570105419</v>
       </c>
       <c r="C10" t="n">
-        <v>6.467184415638248e-40</v>
+        <v>0.02879664440982044</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.05845086001922031</v>
+        <v>190.4267672319682</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5181607264366057</v>
+        <v>0.05028967122639668</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>4.938097514272775e-05</v>
+        <v>905.782962973866</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6179160668013814</v>
+        <v>6.163740775106954e-39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>6.407921032249063</v>
+        <v>0.06774294156149711</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4661550797636144</v>
+        <v>0.452467137263778</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>27.08089263460091</v>
+        <v>4.213556529219741e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.001593005682066504</v>
+        <v>0.669638879800174</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1449.577933736494</v>
+        <v>7.399340972372105</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1476907066349397</v>
+        <v>0.4003229524017605</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-718.4999977254764</v>
+        <v>28.46206248319082</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4394925550134775</v>
+        <v>0.0009365603878591209</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-1324.848913470365</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1863802374765029</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>-703.7519419369299</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.4478988899331033</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>-789.4530122976207</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.7985495722237956</v>
+      <c r="B19" t="n">
+        <v>-1414.937066547522</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.6478840456711089</v>
       </c>
     </row>
   </sheetData>
@@ -2386,7 +2594,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2418,205 +2626,231 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4821.935629821432</v>
+        <v>3424.358438459255</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001826162160152098</v>
+        <v>0.08893488980092878</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Education[T.Secondary]</t>
+          <t>Education[T.Primary/None]</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-2170.930586225993</v>
+        <v>1180.011708696253</v>
       </c>
       <c r="C3" t="n">
-        <v>0.009650466383105868</v>
+        <v>0.4544518496756211</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Education[T.University]</t>
+          <t>Education[T.Secondary]</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1901.871349191879</v>
+        <v>-868.565306909391</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02363993296138751</v>
+        <v>0.5290341366768405</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Education[T.Unknown/Other]</t>
+          <t>Education[T.University]</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1392.825904060503</v>
+        <v>-591.0814749409265</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3410447332265636</v>
+        <v>0.6686750278618472</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>HHSize</t>
+          <t>Season[T.Spring]</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>8.028350777451053</v>
+        <v>-1379.65256250362</v>
       </c>
       <c r="C6" t="n">
-        <v>0.910293796031157</v>
+        <v>0.0430854944409556</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sex</t>
+          <t>Season[T.Winter]</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-815.8803444217452</v>
+        <v>-1034.686053383921</v>
       </c>
       <c r="C7" t="n">
-        <v>2.125198083814976e-06</v>
+        <v>0.1117905666380415</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Age</t>
+          <t>HHSize</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-10.72784275300838</v>
+        <v>36.5477667193006</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1415498674538774</v>
+        <v>0.6145969327192206</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>DistSubcenter_res</t>
+          <t>Sex</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>61.09088565257527</v>
+        <v>-819.0337479000592</v>
       </c>
       <c r="C9" t="n">
-        <v>0.5280007311086685</v>
+        <v>1.93662285009422e-06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>DistCenter_res</t>
+          <t>Age</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>894.941279143457</v>
+        <v>-10.26868764317417</v>
       </c>
       <c r="C10" t="n">
-        <v>3.000817645877259e-39</v>
+        <v>0.1590832993101499</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>UrbPopDensity_res</t>
+          <t>DistSubcenter_res</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-0.0006497036940417561</v>
+        <v>71.11448177064489</v>
       </c>
       <c r="C11" t="n">
-        <v>0.9941947634371305</v>
+        <v>0.4640277001596954</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>UrbBuildDensity_res</t>
+          <t>DistCenter_res</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.853995750048333e-05</v>
+        <v>890.5417767711859</v>
       </c>
       <c r="C12" t="n">
-        <v>0.316481858171823</v>
+        <v>8.721994427771798e-39</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>UrbPopDensity_res</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-7.990429336024811</v>
+        <v>-0.0008579651184658782</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3599241245457562</v>
+        <v>0.9923141302341066</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>UrbBuildDensity_res</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>15.75607436811461</v>
+        <v>9.949975564107549e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.06702254152399904</v>
+        <v>0.310668988881326</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>IntersecDensity_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2919.450538190678</v>
+        <v>-6.76882509481731</v>
       </c>
       <c r="C15" t="n">
-        <v>0.004672500472852446</v>
+        <v>0.4385776239953125</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>LU_UrbFab_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>201.5210908373852</v>
+        <v>17.27641167944755</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8248023483001068</v>
+        <v>0.04536667407407577</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>LU_Comm_res</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>-2822.201592565309</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.006327824691041529</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>LU_UrbFab_res</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>306.3631386053827</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.7360862503190033</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
           <t>bike_lane_share_res</t>
         </is>
       </c>
-      <c r="B17" t="n">
-        <v>4633.525585547564</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.1293700325087289</v>
+      <c r="B19" t="n">
+        <v>4139.479973686363</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.1764851383272801</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ08974452" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ09194252" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ09422416" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ09627437" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ09823589" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ10032611" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ10238631" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ10440655" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ10644376" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ06485488" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ06713767" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ06934211" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ07140509" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ07351121" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ07561343" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ07767113" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ07978773" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ08192681" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5705.956255674148</v>
+        <v>5787.661860437232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.006471042880512402</v>
+        <v>0.005702355160331348</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>620.0786174113043</v>
+        <v>560.4703517558819</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6937226549195461</v>
+        <v>0.721637855012859</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-767.0182632936534</v>
+        <v>-871.4296341487941</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5866451915609676</v>
+        <v>0.5354238063599235</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-672.6010872226663</v>
+        <v>-775.3985239100036</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6334690357727504</v>
+        <v>0.5813021839643536</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4281.182111053372</v>
+        <v>-4293.408271804202</v>
       </c>
       <c r="C6" t="n">
-        <v>1.762255662343111e-07</v>
+        <v>1.618497000321953e-07</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3911.401961968803</v>
+        <v>-3910.14950365967</v>
       </c>
       <c r="C7" t="n">
-        <v>8.061567276866767e-07</v>
+        <v>8.116921337965634e-07</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.24374819528239</v>
+        <v>87.91492534922014</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2346672639172685</v>
+        <v>0.2310443705345488</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-732.0222202150586</v>
+        <v>-728.1292118541621</v>
       </c>
       <c r="C9" t="n">
-        <v>2.849804689972911e-05</v>
+        <v>3.121591111575678e-05</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.6508528578513</v>
+        <v>-12.34619972209229</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08555537900937248</v>
+        <v>0.093009383493858</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.0031570827565</v>
+        <v>205.7509378193461</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05392927108304432</v>
+        <v>0.03141423913410218</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>946.196651871971</v>
+        <v>937.8530944268431</v>
       </c>
       <c r="C12" t="n">
-        <v>3.73016558035957e-42</v>
+        <v>3.559936448988942e-42</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0009153130696142736</v>
+        <v>0.02677816613341312</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9919530804930832</v>
+        <v>0.7562905667557724</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.194548136279819e-05</v>
+        <v>8.171451333744635e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4689258349414102</v>
+        <v>0.4080490637539805</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.110680647264893</v>
+        <v>2.879804995590249</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8137750584710559</v>
+        <v>0.7468332233279733</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.71068305218201</v>
+        <v>13.53462943832272</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1153474773521193</v>
+        <v>0.1199828129314685</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1685.891628989182</v>
+        <v>-1549.128040412051</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1022206548160452</v>
+        <v>0.1291068889338167</v>
       </c>
     </row>
     <row r="18">
@@ -674,23 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-243.7067556322393</v>
+        <v>-423.8558448632095</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7912147820858623</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>2875.596182427542</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3579970034156897</v>
+        <v>0.6374716528622514</v>
       </c>
     </row>
   </sheetData>
@@ -704,7 +691,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2971.204119603321</v>
+        <v>3025.218851893288</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1418826045353619</v>
+        <v>0.133767828309549</v>
       </c>
     </row>
     <row r="3">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>517.4803710481592</v>
+        <v>500.5463709514393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7425992082251018</v>
+        <v>0.7505873303068404</v>
       </c>
     </row>
     <row r="4">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-558.7966263894505</v>
+        <v>-598.6430320931653</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6849144672838061</v>
+        <v>0.6628262781273262</v>
       </c>
     </row>
     <row r="5">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-593.7827764090453</v>
+        <v>-635.2504089129932</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6665600329848409</v>
+        <v>0.643749252092175</v>
       </c>
     </row>
     <row r="6">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1011.936546107465</v>
+        <v>-1023.806128701585</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1690109546229872</v>
+        <v>0.1636045834400082</v>
       </c>
     </row>
     <row r="7">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-772.9623071142133</v>
+        <v>-781.3445053196076</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2742081020771847</v>
+        <v>0.2687011367683874</v>
       </c>
     </row>
     <row r="8">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.72138699383011</v>
+        <v>34.37092010040445</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6361564783083677</v>
+        <v>0.6294930687398732</v>
       </c>
     </row>
     <row r="9">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-905.4841842993859</v>
+        <v>-903.4269140411684</v>
       </c>
       <c r="C9" t="n">
-        <v>1.557385622905376e-07</v>
+        <v>1.627234365990164e-07</v>
       </c>
     </row>
     <row r="10">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.94186116341721</v>
+        <v>-15.83320782299519</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02633095817427787</v>
+        <v>0.0272172735984535</v>
       </c>
     </row>
     <row r="11">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>324.404063098086</v>
+        <v>332.0659796786016</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0008234352268144832</v>
+        <v>0.0004698221500090031</v>
       </c>
     </row>
     <row r="12">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>874.3301193433604</v>
+        <v>870.4201487222163</v>
       </c>
       <c r="C12" t="n">
-        <v>7.285006534023662e-39</v>
+        <v>2.044792282200575e-39</v>
       </c>
     </row>
     <row r="13">
@@ -879,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01297374000572531</v>
+        <v>-0.003071623909756946</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8831295529731762</v>
+        <v>0.9709941567719222</v>
       </c>
     </row>
     <row r="14">
@@ -892,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.944369636368953e-05</v>
+        <v>9.408310887056476e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3555226543508384</v>
+        <v>0.3273056178358129</v>
       </c>
     </row>
     <row r="15">
@@ -905,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.759151497702486</v>
+        <v>-1.458543153386935</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8387912215525581</v>
+        <v>0.8654851640915979</v>
       </c>
     </row>
     <row r="16">
@@ -918,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.7612167007617</v>
+        <v>11.61372210962982</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1656476295383076</v>
+        <v>0.1704832558587711</v>
       </c>
     </row>
     <row r="17">
@@ -931,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1747.806791376361</v>
+        <v>-1700.49943712154</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07347815025993081</v>
+        <v>0.07916244619578919</v>
       </c>
     </row>
     <row r="18">
@@ -944,23 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>147.9015717407184</v>
+        <v>69.36708076733584</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8731799701069407</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1177.678110712885</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6976076766614725</v>
+        <v>0.9388388130455243</v>
       </c>
     </row>
   </sheetData>
@@ -974,7 +948,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2238.288810658404</v>
+        <v>2216.022717163031</v>
       </c>
       <c r="C2" t="n">
-        <v>0.28272577374078</v>
+        <v>0.2867628473319028</v>
       </c>
     </row>
     <row r="3">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>723.8200851535037</v>
+        <v>737.1952011322301</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6513555087146595</v>
+        <v>0.644991244444713</v>
       </c>
     </row>
     <row r="4">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-743.7251363916969</v>
+        <v>-721.9141463923465</v>
       </c>
       <c r="C4" t="n">
-        <v>0.599820717784738</v>
+        <v>0.6094694318705236</v>
       </c>
     </row>
     <row r="5">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-524.4674365395103</v>
+        <v>-501.8835598110993</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7116417033405259</v>
+        <v>0.7226743147506844</v>
       </c>
     </row>
     <row r="6">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-640.391611579772</v>
+        <v>-630.1319720404706</v>
       </c>
       <c r="C6" t="n">
-        <v>0.374615923743343</v>
+        <v>0.3810536616732798</v>
       </c>
     </row>
     <row r="7">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-339.7504817510485</v>
+        <v>-330.6007656020092</v>
       </c>
       <c r="C7" t="n">
-        <v>0.622570653996098</v>
+        <v>0.6311735595148682</v>
       </c>
     </row>
     <row r="8">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>95.54704016395098</v>
+        <v>94.90086435901875</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1929561183996466</v>
+        <v>0.1954539290335814</v>
       </c>
     </row>
     <row r="9">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-658.4037230193858</v>
+        <v>-659.2760837916829</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001994666915021765</v>
+        <v>0.0001940212659308452</v>
       </c>
     </row>
     <row r="10">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.7605778383804</v>
+        <v>-14.89380470933306</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04740952803896632</v>
+        <v>0.04458017209608126</v>
       </c>
     </row>
     <row r="11">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>159.8837852615528</v>
+        <v>155.8034904421268</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0995078996944838</v>
+        <v>0.1010059118615647</v>
       </c>
     </row>
     <row r="12">
@@ -1136,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>812.6144485869727</v>
+        <v>814.5160983600192</v>
       </c>
       <c r="C12" t="n">
-        <v>1.07857658959971e-31</v>
+        <v>2.189076342652585e-32</v>
       </c>
     </row>
     <row r="13">
@@ -1149,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05916103884301432</v>
+        <v>0.05327021885251407</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5178038430516134</v>
+        <v>0.5398395768230874</v>
       </c>
     </row>
     <row r="14">
@@ -1162,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.601408938691423e-05</v>
+        <v>3.404844642832344e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7172313236722963</v>
+        <v>0.7307953163670451</v>
       </c>
     </row>
     <row r="15">
@@ -1175,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.797258992145732</v>
+        <v>-6.992895951190324</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4507043489986007</v>
+        <v>0.4351087640859954</v>
       </c>
     </row>
     <row r="16">
@@ -1188,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.15152215323148</v>
+        <v>21.19606013490406</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01669387848025958</v>
+        <v>0.01640488264178926</v>
       </c>
     </row>
     <row r="17">
@@ -1201,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-712.884030232795</v>
+        <v>-744.4363208558455</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4771209240832703</v>
+        <v>0.4524280113448553</v>
       </c>
     </row>
     <row r="18">
@@ -1214,23 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-125.5869195313855</v>
+        <v>-83.95583076075991</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8927039344573175</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-648.6898319159345</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8363497050999875</v>
+        <v>0.9263915913047295</v>
       </c>
     </row>
   </sheetData>
@@ -1244,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-962.9180500736556</v>
+        <v>-821.2995613659232</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7019883216041874</v>
+        <v>0.7439317454327372</v>
       </c>
     </row>
     <row r="3">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3210.295122532678</v>
+        <v>3133.609291057881</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1467087714165947</v>
+        <v>0.1564985356690511</v>
       </c>
     </row>
     <row r="4">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1657.122604676289</v>
+        <v>1530.375937534573</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4298110567506942</v>
+        <v>0.4654557135991805</v>
       </c>
     </row>
     <row r="5">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1858.945641878318</v>
+        <v>1721.30553832011</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3758478500070834</v>
+        <v>0.411623386952755</v>
       </c>
     </row>
     <row r="6">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-663.8197434717466</v>
+        <v>-736.6807150730006</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3648589615622777</v>
+        <v>0.3131307946309561</v>
       </c>
     </row>
     <row r="7">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-353.4330452659489</v>
+        <v>-412.9198718520968</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6153880640723609</v>
+        <v>0.5563785187166559</v>
       </c>
     </row>
     <row r="8">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.6813161835085</v>
+        <v>67.33970656081848</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3855501118050445</v>
+        <v>0.3506605927542229</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-459.8794917949842</v>
+        <v>-452.8610714427265</v>
       </c>
       <c r="C9" t="n">
-        <v>0.008038400459471637</v>
+        <v>0.009025792031208589</v>
       </c>
     </row>
     <row r="10">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-22.10363905486413</v>
+        <v>-21.52881860962074</v>
       </c>
       <c r="C10" t="n">
-        <v>0.002806469372078432</v>
+        <v>0.003546065574861176</v>
       </c>
     </row>
     <row r="11">
@@ -1393,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>188.7666076678642</v>
+        <v>214.8135031221864</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04992304659365807</v>
+        <v>0.02228196701840649</v>
       </c>
     </row>
     <row r="12">
@@ -1406,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>915.4740381720353</v>
+        <v>905.4641993081159</v>
       </c>
       <c r="C12" t="n">
-        <v>8.147862662226763e-39</v>
+        <v>1.597187260492327e-38</v>
       </c>
     </row>
     <row r="13">
@@ -1419,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04546613657323023</v>
+        <v>0.07677276792727952</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6078822256792855</v>
+        <v>0.3661644876915964</v>
       </c>
     </row>
     <row r="14">
@@ -1432,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.257985185900844e-05</v>
+        <v>3.932903182926219e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8175108511320086</v>
+        <v>0.6849420074447499</v>
       </c>
     </row>
     <row r="15">
@@ -1445,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.389294095188369</v>
+        <v>-4.268063767423201</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5441652364452059</v>
+        <v>0.6292493992202424</v>
       </c>
     </row>
     <row r="16">
@@ -1458,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.54493417945308</v>
+        <v>22.18861190707569</v>
       </c>
       <c r="C16" t="n">
-        <v>0.009627624198253304</v>
+        <v>0.01080061796218372</v>
       </c>
     </row>
     <row r="17">
@@ -1471,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-298.9257700531919</v>
+        <v>-131.9755847257201</v>
       </c>
       <c r="C17" t="n">
-        <v>0.761263702990181</v>
+        <v>0.8923016515689042</v>
       </c>
     </row>
     <row r="18">
@@ -1484,23 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>577.6994594343406</v>
+        <v>356.5599424736093</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5261703833946338</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3812.482078886899</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.2151853457701389</v>
+        <v>0.6899714099459962</v>
       </c>
     </row>
   </sheetData>
@@ -1514,7 +1462,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1087.04462038417</v>
+        <v>1216.241984868995</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6075349063289598</v>
+        <v>0.5648108380208434</v>
       </c>
     </row>
     <row r="3">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1240.343008236481</v>
+        <v>1185.121378197559</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4409883429282825</v>
+        <v>0.4613277285868072</v>
       </c>
     </row>
     <row r="4">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-390.2164637107901</v>
+        <v>-498.9960017692574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7840844140619847</v>
+        <v>0.725279633831303</v>
       </c>
     </row>
     <row r="5">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-117.9411639136122</v>
+        <v>-229.4931696145682</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9340572861678477</v>
+        <v>0.8717016974195941</v>
       </c>
     </row>
     <row r="6">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1710.141283455174</v>
+        <v>-1753.370530136897</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01507679082960434</v>
+        <v>0.01253897280012766</v>
       </c>
     </row>
     <row r="7">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1186.419211899391</v>
+        <v>-1222.756838937819</v>
       </c>
       <c r="C7" t="n">
-        <v>0.07681372466204488</v>
+        <v>0.06780154661418539</v>
       </c>
     </row>
     <row r="8">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>24.21281098292347</v>
+        <v>26.6909559694281</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7428524876779038</v>
+        <v>0.7174560954383316</v>
       </c>
     </row>
     <row r="9">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-766.2741028002386</v>
+        <v>-761.2839796290846</v>
       </c>
       <c r="C9" t="n">
-        <v>1.463201795771607e-05</v>
+        <v>1.648746903181e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1650,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.81168820669041</v>
+        <v>-15.41627907217152</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03164582706258822</v>
+        <v>0.03588443122971865</v>
       </c>
     </row>
     <row r="11">
@@ -1663,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.9176238682899</v>
+        <v>227.084954866593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03650954272789097</v>
+        <v>0.01821146744899232</v>
       </c>
     </row>
     <row r="12">
@@ -1676,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>889.3280014265523</v>
+        <v>881.1457537423496</v>
       </c>
       <c r="C12" t="n">
-        <v>1.412351434157667e-35</v>
+        <v>1.987906098198888e-35</v>
       </c>
     </row>
     <row r="13">
@@ -1689,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.04638940149675023</v>
+        <v>0.07303834235405073</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6110093595304464</v>
+        <v>0.4023215665650024</v>
       </c>
     </row>
     <row r="14">
@@ -1702,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.075360182235486e-05</v>
+        <v>4.273029996574644e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7593529643464272</v>
+        <v>0.6681432025470333</v>
       </c>
     </row>
     <row r="15">
@@ -1715,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.169757551273947</v>
+        <v>-0.2866356748042396</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8967922535944275</v>
+        <v>0.9745204183271419</v>
       </c>
     </row>
     <row r="16">
@@ -1728,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.91658879973383</v>
+        <v>31.50901383355646</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004288915680245612</v>
+        <v>0.0005007316525350546</v>
       </c>
     </row>
     <row r="17">
@@ -1741,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-947.486088634084</v>
+        <v>-804.3800176235557</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3411001684423538</v>
+        <v>0.4140651259558562</v>
       </c>
     </row>
     <row r="18">
@@ -1754,23 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>255.1315202180974</v>
+        <v>63.34401525745841</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7854224589076002</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3132.0648207863</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3183983784983765</v>
+        <v>0.9449374652636942</v>
       </c>
     </row>
   </sheetData>
@@ -1784,7 +1719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3603.640888172667</v>
+        <v>3688.520614936216</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09152378930328899</v>
+        <v>0.08344492469362004</v>
       </c>
     </row>
     <row r="3">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>162.0598886505243</v>
+        <v>93.98589096918795</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9238422686113559</v>
+        <v>0.9556860293829469</v>
       </c>
     </row>
     <row r="4">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1988.572170424025</v>
+        <v>-2062.901088289602</v>
       </c>
       <c r="C4" t="n">
-        <v>0.188531801926698</v>
+        <v>0.1711043048110675</v>
       </c>
     </row>
     <row r="5">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1805.962222272133</v>
+        <v>-1883.127839198152</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2321874111127512</v>
+        <v>0.211192992823766</v>
       </c>
     </row>
     <row r="6">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1565.615715173758</v>
+        <v>-1599.072225201436</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0300714183107951</v>
+        <v>0.02627446889525726</v>
       </c>
     </row>
     <row r="7">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1378.744011527601</v>
+        <v>-1407.172298004774</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04601188443214888</v>
+        <v>0.04122150058175207</v>
       </c>
     </row>
     <row r="8">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.14227613250988</v>
+        <v>36.82444895275718</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6114648569770784</v>
+        <v>0.6046501124722655</v>
       </c>
     </row>
     <row r="9">
@@ -1907,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-880.7271942604651</v>
+        <v>-878.433878353714</v>
       </c>
       <c r="C9" t="n">
-        <v>3.91454820180948e-07</v>
+        <v>4.148472366015433e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1920,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.99940864072073</v>
+        <v>-16.66731043933081</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02041289737563938</v>
+        <v>0.0226066897009723</v>
       </c>
     </row>
     <row r="11">
@@ -1933,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>84.09936802209955</v>
+        <v>95.48107585969069</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3849288136480108</v>
+        <v>0.3148658584730745</v>
       </c>
     </row>
     <row r="12">
@@ -1946,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>849.21688459302</v>
+        <v>844.5115045278085</v>
       </c>
       <c r="C12" t="n">
-        <v>1.160983815632575e-34</v>
+        <v>9.971796298344843e-35</v>
       </c>
     </row>
     <row r="13">
@@ -1959,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01132754755919805</v>
+        <v>0.02747582615796434</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8991255448633657</v>
+        <v>0.7476892390341107</v>
       </c>
     </row>
     <row r="14">
@@ -1972,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.728317658862452e-05</v>
+        <v>3.451098037379448e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7845943387623728</v>
+        <v>0.7276733727856318</v>
       </c>
     </row>
     <row r="15">
@@ -1985,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1.734287520279237</v>
+        <v>2.332312066662045</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8449377926344546</v>
+        <v>0.7912720514613701</v>
       </c>
     </row>
     <row r="16">
@@ -1998,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.37256984850789</v>
+        <v>30.23446672542605</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004682910215742239</v>
+        <v>0.0004936202822273044</v>
       </c>
     </row>
     <row r="17">
@@ -2011,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1548.198458110263</v>
+        <v>-1469.504442263122</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1415964426412777</v>
+        <v>0.1597749055800292</v>
       </c>
     </row>
     <row r="18">
@@ -2024,23 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>295.4990738120262</v>
+        <v>170.6968500009284</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7453950258858705</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>1892.820472745905</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5379455513146865</v>
+        <v>0.8473970836023377</v>
       </c>
     </row>
   </sheetData>
@@ -2054,7 +1976,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1667.492402649698</v>
+        <v>1800.61162155229</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4244270190018434</v>
+        <v>0.3874789674479382</v>
       </c>
     </row>
     <row r="3">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1048.625443435974</v>
+        <v>983.9619081190256</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5083084125134059</v>
+        <v>0.5344822946692884</v>
       </c>
     </row>
     <row r="4">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-410.6755150680565</v>
+        <v>-524.1462745421029</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7724505265833971</v>
+        <v>0.7112336024291035</v>
       </c>
     </row>
     <row r="5">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-314.2304509603099</v>
+        <v>-433.4480123953506</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8249145123459607</v>
+        <v>0.7594567897562138</v>
       </c>
     </row>
     <row r="6">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1103.279628957597</v>
+        <v>-1169.815854176946</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1395667026553119</v>
+        <v>0.115849592989244</v>
       </c>
     </row>
     <row r="7">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-845.4095598750021</v>
+        <v>-898.7217463188604</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2363536839079075</v>
+        <v>0.2068904972985613</v>
       </c>
     </row>
     <row r="8">
@@ -2164,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>57.04725348956116</v>
+        <v>60.28322699697344</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4367405147366987</v>
+        <v>0.410749177614729</v>
       </c>
     </row>
     <row r="9">
@@ -2177,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-777.395069874953</v>
+        <v>-768.5404682812514</v>
       </c>
       <c r="C9" t="n">
-        <v>1.136459403068022e-05</v>
+        <v>1.39348562777601e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2190,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.69203027041258</v>
+        <v>-20.25690260902381</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005643880988182599</v>
+        <v>0.006645699234356497</v>
       </c>
     </row>
     <row r="11">
@@ -2203,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>185.8417595899911</v>
+        <v>208.805494434652</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05904098459086143</v>
+        <v>0.02936371340020763</v>
       </c>
     </row>
     <row r="12">
@@ -2216,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>883.1322766060573</v>
+        <v>872.7520061898415</v>
       </c>
       <c r="C12" t="n">
-        <v>1.175801260341223e-36</v>
+        <v>1.286082590984211e-36</v>
       </c>
     </row>
     <row r="13">
@@ -2229,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.03724023592930122</v>
+        <v>-0.009385556186488186</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6860396641638149</v>
+        <v>0.9150488038118538</v>
       </c>
     </row>
     <row r="14">
@@ -2242,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001003433229585861</v>
+        <v>0.0001115544704941876</v>
       </c>
       <c r="C14" t="n">
-        <v>0.320680610799756</v>
+        <v>0.2667617284509411</v>
       </c>
     </row>
     <row r="15">
@@ -2255,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.918621700339628</v>
+        <v>-1.917610148844754</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7469564244626271</v>
+        <v>0.8311315590625897</v>
       </c>
     </row>
     <row r="16">
@@ -2268,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>26.07729400291375</v>
+        <v>25.77478992592299</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003220390266651215</v>
+        <v>0.003575258897838244</v>
       </c>
     </row>
     <row r="17">
@@ -2281,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1041.501766631232</v>
+        <v>-874.3915561650681</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3147255502463364</v>
+        <v>0.3926471517664465</v>
       </c>
     </row>
     <row r="18">
@@ -2294,23 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>847.7361116563076</v>
+        <v>637.9589680460399</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3820145824525514</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>3224.816664526028</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.3077266935125695</v>
+        <v>0.5008192872428135</v>
       </c>
     </row>
   </sheetData>
@@ -2324,7 +2233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1512.510859298831</v>
+        <v>1465.698802771907</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5093109343207751</v>
+        <v>0.5219945880299064</v>
       </c>
     </row>
     <row r="3">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>722.6962128795117</v>
+        <v>735.7986555339639</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6979832953594959</v>
+        <v>0.6926842048560269</v>
       </c>
     </row>
     <row r="4">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-258.821226950251</v>
+        <v>-216.6971896790596</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8770714243414196</v>
+        <v>0.8967767584820996</v>
       </c>
     </row>
     <row r="5">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>102.945731185534</v>
+        <v>144.4060142458552</v>
       </c>
       <c r="C5" t="n">
-        <v>0.951027901364585</v>
+        <v>0.9312305981339213</v>
       </c>
     </row>
     <row r="6">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1874.922295491788</v>
+        <v>-1851.533467121219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01072768914057577</v>
+        <v>0.01152427436519315</v>
       </c>
     </row>
     <row r="7">
@@ -2421,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1509.825713571014</v>
+        <v>-1492.131771051945</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03231782058222307</v>
+        <v>0.03408367531212019</v>
       </c>
     </row>
     <row r="8">
@@ -2434,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>12.3897395949798</v>
+        <v>11.56726388006366</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8647141788242829</v>
+        <v>0.8735500181648022</v>
       </c>
     </row>
     <row r="9">
@@ -2447,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-760.3486753931454</v>
+        <v>-762.904369746784</v>
       </c>
       <c r="C9" t="n">
-        <v>1.388587591655887e-05</v>
+        <v>1.280555727638058e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2460,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.00807570105419</v>
+        <v>-16.1558048638714</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02879664440982044</v>
+        <v>0.02717041706731901</v>
       </c>
     </row>
     <row r="11">
@@ -2473,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>190.4267672319682</v>
+        <v>182.0451709149598</v>
       </c>
       <c r="C11" t="n">
-        <v>0.05028967122639668</v>
+        <v>0.0566411685398542</v>
       </c>
     </row>
     <row r="12">
@@ -2486,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>905.782962973866</v>
+        <v>909.8907476268928</v>
       </c>
       <c r="C12" t="n">
-        <v>6.163740775106954e-39</v>
+        <v>6.439034118101179e-40</v>
       </c>
     </row>
     <row r="13">
@@ -2499,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.06774294156149711</v>
+        <v>0.0554530801249496</v>
       </c>
       <c r="C13" t="n">
-        <v>0.452467137263778</v>
+        <v>0.5192285034142659</v>
       </c>
     </row>
     <row r="14">
@@ -2512,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.213556529219741e-05</v>
+        <v>3.684483649004646e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.669638879800174</v>
+        <v>0.7071008497190758</v>
       </c>
     </row>
     <row r="15">
@@ -2525,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>7.399340972372105</v>
+        <v>6.993560620656752</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4003229524017605</v>
+        <v>0.4241772972439719</v>
       </c>
     </row>
     <row r="16">
@@ -2538,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.46206248319082</v>
+        <v>28.51264346122423</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009365603878591209</v>
+        <v>0.0009137931301738809</v>
       </c>
     </row>
     <row r="17">
@@ -2551,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1324.848913470365</v>
+        <v>-1382.552972597791</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1863802374765029</v>
+        <v>0.1644445721645356</v>
       </c>
     </row>
     <row r="18">
@@ -2564,23 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-703.7519419369299</v>
+        <v>-613.4715197826797</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4478988899331033</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>-1414.937066547522</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.6478840456711089</v>
+        <v>0.4982190364873156</v>
       </c>
     </row>
   </sheetData>
@@ -2594,7 +2490,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C19"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3424.358438459255</v>
+        <v>3567.300478589731</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08893488980092878</v>
+        <v>0.07606003351429406</v>
       </c>
     </row>
     <row r="3">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1180.011708696253</v>
+        <v>1087.763199044845</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4544518496756211</v>
+        <v>0.4901760879853653</v>
       </c>
     </row>
     <row r="4">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-868.565306909391</v>
+        <v>-1006.398815729288</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5290341366768405</v>
+        <v>0.4646650911557121</v>
       </c>
     </row>
     <row r="5">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-591.0814749409265</v>
+        <v>-735.4663675706852</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6686750278618472</v>
+        <v>0.59335996675478</v>
       </c>
     </row>
     <row r="6">
@@ -2678,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1379.65256250362</v>
+        <v>-1444.971688468196</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0430854944409556</v>
+        <v>0.0337229103542405</v>
       </c>
     </row>
     <row r="7">
@@ -2691,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1034.686053383921</v>
+        <v>-1085.448934288898</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1117905666380415</v>
+        <v>0.09481175552814831</v>
       </c>
     </row>
     <row r="8">
@@ -2704,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.5477667193006</v>
+        <v>38.79235429612115</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6145969327192206</v>
+        <v>0.5930246764604921</v>
       </c>
     </row>
     <row r="9">
@@ -2717,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-819.0337479000592</v>
+        <v>-818.0065082416279</v>
       </c>
       <c r="C9" t="n">
-        <v>1.93662285009422e-06</v>
+        <v>2.004809937504304e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2730,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-10.26868764317417</v>
+        <v>-9.532531449018908</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1590832993101499</v>
+        <v>0.1899884037886223</v>
       </c>
     </row>
     <row r="11">
@@ -2743,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.11448177064489</v>
+        <v>97.19837702253412</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4640277001596954</v>
+        <v>0.3073284727278829</v>
       </c>
     </row>
     <row r="12">
@@ -2756,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>890.5417767711859</v>
+        <v>877.7445360318625</v>
       </c>
       <c r="C12" t="n">
-        <v>8.721994427771798e-39</v>
+        <v>1.817381736067934e-38</v>
       </c>
     </row>
     <row r="13">
@@ -2769,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0008579651184658782</v>
+        <v>0.0346779096525195</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9923141302341066</v>
+        <v>0.6837177974266535</v>
       </c>
     </row>
     <row r="14">
@@ -2782,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.949975564107549e-05</v>
+        <v>0.0001154768212914044</v>
       </c>
       <c r="C14" t="n">
-        <v>0.310668988881326</v>
+        <v>0.2360587179925614</v>
       </c>
     </row>
     <row r="15">
@@ -2795,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.76882509481731</v>
+        <v>-5.510138895371607</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4385776239953125</v>
+        <v>0.5260568520000355</v>
       </c>
     </row>
     <row r="16">
@@ -2808,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.27641167944755</v>
+        <v>17.08627882010876</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04536667407407577</v>
+        <v>0.04781186685303259</v>
       </c>
     </row>
     <row r="17">
@@ -2821,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2822.201592565309</v>
+        <v>-2641.782570729781</v>
       </c>
       <c r="C17" t="n">
-        <v>0.006327824691041529</v>
+        <v>0.009964583827982602</v>
       </c>
     </row>
     <row r="18">
@@ -2834,23 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>306.3631386053827</v>
+        <v>38.54743645576781</v>
       </c>
       <c r="C18" t="n">
-        <v>0.7360862503190033</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>bike_lane_share_res</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>4139.479973686363</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.1764851383272801</v>
+        <v>0.9653490581125588</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ06485488" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ06713767" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ06934211" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ07140509" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ07351121" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ07561343" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ07767113" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ07978773" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ08192681" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ51087014" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ51324029" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ51592262" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ51876375" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ52160871" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ52428709" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ52682291" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ52950494" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ53217300" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5787.661860437232</v>
+        <v>4277.413047466433</v>
       </c>
       <c r="C2" t="n">
-        <v>0.005702355160331348</v>
+        <v>0.03875977494402693</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>560.4703517558819</v>
+        <v>650.7805179227928</v>
       </c>
       <c r="C3" t="n">
-        <v>0.721637855012859</v>
+        <v>0.6721166354814443</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-871.4296341487941</v>
+        <v>-798.7592585702121</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5354238063599235</v>
+        <v>0.5574757558962644</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-775.3985239100036</v>
+        <v>-641.2189537506891</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5813021839643536</v>
+        <v>0.637978440956906</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4293.408271804202</v>
+        <v>-3138.776718082726</v>
       </c>
       <c r="C6" t="n">
-        <v>1.618497000321953e-07</v>
+        <v>0.0002251532563043989</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3910.14950365967</v>
+        <v>-2747.189906446334</v>
       </c>
       <c r="C7" t="n">
-        <v>8.116921337965634e-07</v>
+        <v>0.0008779033086940579</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>87.91492534922014</v>
+        <v>62.17320690223936</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2310443705345488</v>
+        <v>0.3788784879368399</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-728.1292118541621</v>
+        <v>-745.4213232321824</v>
       </c>
       <c r="C9" t="n">
-        <v>3.121591111575678e-05</v>
+        <v>1.534363553473897e-05</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.34619972209229</v>
+        <v>-6.099010849092927</v>
       </c>
       <c r="C10" t="n">
-        <v>0.093009383493858</v>
+        <v>0.4008132461805211</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>205.7509378193461</v>
+        <v>206.5224892895782</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03141423913410218</v>
+        <v>0.02757270588719505</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>937.8530944268431</v>
+        <v>937.5342886165516</v>
       </c>
       <c r="C12" t="n">
-        <v>3.559936448988942e-42</v>
+        <v>1.745008941198658e-43</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02677816613341312</v>
+        <v>0.07050877805892473</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7562905667557724</v>
+        <v>0.4000960729624539</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>8.171451333744635e-05</v>
+        <v>6.392445399477508e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4080490637539805</v>
+        <v>0.4993929968772444</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.879804995590249</v>
+        <v>-1.137667805728066</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7468332233279733</v>
+        <v>0.8959556752653126</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>13.53462943832272</v>
+        <v>14.92939835156433</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1199828129314685</v>
+        <v>0.08626169322395984</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1549.128040412051</v>
+        <v>-1541.873970544868</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1291068889338167</v>
+        <v>0.115724094710808</v>
       </c>
     </row>
     <row r="18">
@@ -674,10 +674,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-423.8558448632095</v>
+        <v>-533.5416830351519</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6374716528622514</v>
+        <v>0.5279140677857199</v>
       </c>
     </row>
   </sheetData>
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3025.218851893288</v>
+        <v>3369.9927680772</v>
       </c>
       <c r="C2" t="n">
-        <v>0.133767828309549</v>
+        <v>0.1029469721354454</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>500.5463709514393</v>
+        <v>679.1715701426754</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7505873303068404</v>
+        <v>0.6721067709185808</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-598.6430320931653</v>
+        <v>-889.9265343093972</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6628262781273262</v>
+        <v>0.5240978790303238</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-635.2504089129932</v>
+        <v>-901.1784577932885</v>
       </c>
       <c r="C5" t="n">
-        <v>0.643749252092175</v>
+        <v>0.5190099923548968</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1023.806128701585</v>
+        <v>-444.2010017585528</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1636045834400082</v>
+        <v>0.5332593051512642</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-781.3445053196076</v>
+        <v>-175.9191580866675</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2687011367683874</v>
+        <v>0.7958011011927483</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.37092010040445</v>
+        <v>85.86382720997567</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6294930687398732</v>
+        <v>0.248008270487921</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-903.4269140411684</v>
+        <v>-536.7930106839892</v>
       </c>
       <c r="C9" t="n">
-        <v>1.627234365990164e-07</v>
+        <v>0.002326258653593287</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.83320782299519</v>
+        <v>-23.5058126951497</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0272172735984535</v>
+        <v>0.001507389330430682</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>332.0659796786016</v>
+        <v>297.4855686446388</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0004698221500090031</v>
+        <v>0.002425263656795615</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>870.4201487222163</v>
+        <v>903.8756331509485</v>
       </c>
       <c r="C12" t="n">
-        <v>2.044792282200575e-39</v>
+        <v>6.30910643812644e-39</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.003071623909756946</v>
+        <v>0.02124772179998411</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9709941567719222</v>
+        <v>0.8112689823887291</v>
       </c>
     </row>
     <row r="14">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.408310887056476e-05</v>
+        <v>7.68128996859941e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3273056178358129</v>
+        <v>0.4538204522745596</v>
       </c>
     </row>
     <row r="15">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.458543153386935</v>
+        <v>-3.433605830955302</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8654851640915979</v>
+        <v>0.7007707614176891</v>
       </c>
     </row>
     <row r="16">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>11.61372210962982</v>
+        <v>5.663138226878174</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1704832558587711</v>
+        <v>0.5289643927430022</v>
       </c>
     </row>
     <row r="17">
@@ -918,10 +918,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1700.49943712154</v>
+        <v>-1562.75075072886</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07916244619578919</v>
+        <v>0.172927735436045</v>
       </c>
     </row>
     <row r="18">
@@ -931,10 +931,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>69.36708076733584</v>
+        <v>-6.701596055638674</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9388388130455243</v>
+        <v>0.9938630984381198</v>
       </c>
     </row>
   </sheetData>
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2216.022717163031</v>
+        <v>-187.598265930206</v>
       </c>
       <c r="C2" t="n">
-        <v>0.2867628473319028</v>
+        <v>0.9411583291018186</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>737.1952011322301</v>
+        <v>2879.418684165393</v>
       </c>
       <c r="C3" t="n">
-        <v>0.644991244444713</v>
+        <v>0.196960833361411</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-721.9141463923465</v>
+        <v>1506.948579079808</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6094694318705236</v>
+        <v>0.4762709628878309</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-501.8835598110993</v>
+        <v>1596.381453587444</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7226743147506844</v>
+        <v>0.4506110071333861</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-630.1319720404706</v>
+        <v>-410.1507383517779</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3810536616732798</v>
+        <v>0.5763282345764232</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-330.6007656020092</v>
+        <v>-182.0327587146306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6311735595148682</v>
+        <v>0.7964971758233615</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>94.90086435901875</v>
+        <v>40.48201141187888</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1954539290335814</v>
+        <v>0.581561179308163</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-659.2760837916829</v>
+        <v>-582.2800097154025</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001940212659308452</v>
+        <v>0.001042832214081535</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.89380470933306</v>
+        <v>-14.92539101059571</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04458017209608126</v>
+        <v>0.04614877752621836</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>155.8034904421268</v>
+        <v>210.6720110060962</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1010059118615647</v>
+        <v>0.03003000016846952</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>814.5160983600192</v>
+        <v>895.4387667254641</v>
       </c>
       <c r="C12" t="n">
-        <v>2.189076342652585e-32</v>
+        <v>7.49933127833207e-39</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05327021885251407</v>
+        <v>0.05898330156913055</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5398395768230874</v>
+        <v>0.4964311055382119</v>
       </c>
     </row>
     <row r="14">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.404844642832344e-05</v>
+        <v>3.160209949886989e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7307953163670451</v>
+        <v>0.7460987422856336</v>
       </c>
     </row>
     <row r="15">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.992895951190324</v>
+        <v>-4.131165450774171</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4351087640859954</v>
+        <v>0.6477859231922174</v>
       </c>
     </row>
     <row r="16">
@@ -1162,10 +1162,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.19606013490406</v>
+        <v>17.37281574455531</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01640488264178926</v>
+        <v>0.05361734057523689</v>
       </c>
     </row>
     <row r="17">
@@ -1175,10 +1175,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-744.4363208558455</v>
+        <v>-858.5007052015264</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4524280113448553</v>
+        <v>0.398410064327552</v>
       </c>
     </row>
     <row r="18">
@@ -1188,10 +1188,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-83.95583076075991</v>
+        <v>-56.90803087392851</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9263915913047295</v>
+        <v>0.9477824471513411</v>
       </c>
     </row>
   </sheetData>
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-821.2995613659232</v>
+        <v>624.8545007452929</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7439317454327372</v>
+        <v>0.7649526364957459</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3133.609291057881</v>
+        <v>812.7442753196278</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1564985356690511</v>
+        <v>0.6152568704176673</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1530.375937534573</v>
+        <v>-592.5497103697237</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4654557135991805</v>
+        <v>0.6694625509088861</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1721.30553832011</v>
+        <v>-413.8877056254137</v>
       </c>
       <c r="C5" t="n">
-        <v>0.411623386952755</v>
+        <v>0.7656500755235981</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-736.6807150730006</v>
+        <v>586.3938831909734</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3131307946309561</v>
+        <v>0.4443589214354478</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-412.9198718520968</v>
+        <v>1101.90298022145</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5563785187166559</v>
+        <v>0.1362920354878527</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.33970656081848</v>
+        <v>18.11563517701673</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3506605927542229</v>
+        <v>0.801851864964724</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-452.8610714427265</v>
+        <v>-651.4309999099737</v>
       </c>
       <c r="C9" t="n">
-        <v>0.009025792031208589</v>
+        <v>0.0002053449884322684</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.52881860962074</v>
+        <v>-18.31281610477373</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003546065574861176</v>
+        <v>0.01276324815352929</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>214.8135031221864</v>
+        <v>278.1336514584567</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02228196701840649</v>
+        <v>0.003996200381189237</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>905.4641993081159</v>
+        <v>930.2618143584923</v>
       </c>
       <c r="C12" t="n">
-        <v>1.597187260492327e-38</v>
+        <v>4.144054654319743e-40</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07677276792727952</v>
+        <v>0.1242566021817058</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3661644876915964</v>
+        <v>0.146615286974343</v>
       </c>
     </row>
     <row r="14">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.932903182926219e-05</v>
+        <v>-3.973889270385079e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6849420074447499</v>
+        <v>0.6806157132416004</v>
       </c>
     </row>
     <row r="15">
@@ -1406,10 +1406,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.268063767423201</v>
+        <v>-4.135125975651922</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6292493992202424</v>
+        <v>0.6508728665761301</v>
       </c>
     </row>
     <row r="16">
@@ -1419,10 +1419,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>22.18861190707569</v>
+        <v>17.00261384938226</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01080061796218372</v>
+        <v>0.05929340535874917</v>
       </c>
     </row>
     <row r="17">
@@ -1432,10 +1432,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-131.9755847257201</v>
+        <v>-866.6548785099508</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8923016515689042</v>
+        <v>0.3881527100985875</v>
       </c>
     </row>
     <row r="18">
@@ -1445,10 +1445,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>356.5599424736093</v>
+        <v>-179.6893312434983</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6899714099459962</v>
+        <v>0.8364626162648756</v>
       </c>
     </row>
   </sheetData>
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1216.241984868995</v>
+        <v>2109.121837919579</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5648108380208434</v>
+        <v>0.3238557464788989</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1185.121378197559</v>
+        <v>494.7856443586022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4613277285868072</v>
+        <v>0.7628897939159359</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-498.9960017692574</v>
+        <v>-635.2179991663697</v>
       </c>
       <c r="C4" t="n">
-        <v>0.725279633831303</v>
+        <v>0.6539010191414121</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-229.4931696145682</v>
+        <v>-477.4750432610829</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8717016974195941</v>
+        <v>0.7360607444251301</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1753.370530136897</v>
+        <v>-660.7762221221117</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01253897280012766</v>
+        <v>0.3591433551995613</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1222.756838937819</v>
+        <v>-229.4125158160913</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06780154661418539</v>
+        <v>0.7390984690086169</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26.6909559694281</v>
+        <v>75.40000730905581</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7174560954383316</v>
+        <v>0.3118261722076194</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-761.2839796290846</v>
+        <v>-682.9503089260122</v>
       </c>
       <c r="C9" t="n">
-        <v>1.648746903181e-05</v>
+        <v>0.0001313675388326427</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.41627907217152</v>
+        <v>-11.8610504071351</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03588443122971865</v>
+        <v>0.1158410524391134</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>227.084954866593</v>
+        <v>263.2100225950941</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01821146744899232</v>
+        <v>0.006941944909952329</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>881.1457537423496</v>
+        <v>867.9794994086307</v>
       </c>
       <c r="C12" t="n">
-        <v>1.987906098198888e-35</v>
+        <v>1.91726956999934e-33</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07303834235405073</v>
+        <v>0.09065959137100374</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4023215665650024</v>
+        <v>0.3052203718848717</v>
       </c>
     </row>
     <row r="14">
@@ -1650,10 +1650,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>4.273029996574644e-05</v>
+        <v>-3.574704240834407e-06</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6681432025470333</v>
+        <v>0.9712884866712448</v>
       </c>
     </row>
     <row r="15">
@@ -1663,10 +1663,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.2866356748042396</v>
+        <v>-7.784078979114367</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9745204183271419</v>
+        <v>0.3999523168546087</v>
       </c>
     </row>
     <row r="16">
@@ -1676,10 +1676,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>31.50901383355646</v>
+        <v>14.79626163889991</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0005007316525350546</v>
+        <v>0.1105329106152298</v>
       </c>
     </row>
     <row r="17">
@@ -1689,10 +1689,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-804.3800176235557</v>
+        <v>-526.7701395666797</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4140651259558562</v>
+        <v>0.6070716010638878</v>
       </c>
     </row>
     <row r="18">
@@ -1702,10 +1702,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>63.34401525745841</v>
+        <v>74.07268536622507</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9449374652636942</v>
+        <v>0.9330970988290668</v>
       </c>
     </row>
   </sheetData>
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3688.520614936216</v>
+        <v>-772.1923568433481</v>
       </c>
       <c r="C2" t="n">
-        <v>0.08344492469362004</v>
+        <v>0.7337746937426034</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.98589096918795</v>
+        <v>1579.850898565792</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9556860293829469</v>
+        <v>0.3714968543831356</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2062.901088289602</v>
+        <v>650.7916229898574</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1711043048110675</v>
+        <v>0.6892831510082706</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1883.127839198152</v>
+        <v>608.6077445901172</v>
       </c>
       <c r="C5" t="n">
-        <v>0.211192992823766</v>
+        <v>0.708838148508187</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1599.072225201436</v>
+        <v>354.6877078493276</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02627446889525726</v>
+        <v>0.6445494757138097</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1407.172298004774</v>
+        <v>645.0136836953482</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04122150058175207</v>
+        <v>0.3832923492187938</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>36.82444895275718</v>
+        <v>34.12980254262438</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6046501124722655</v>
+        <v>0.6330446100209873</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-878.433878353714</v>
+        <v>-708.6083776455691</v>
       </c>
       <c r="C9" t="n">
-        <v>4.148472366015433e-07</v>
+        <v>3.621862183391669e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.66731043933081</v>
+        <v>-8.947600951061311</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0226066897009723</v>
+        <v>0.2201161480575676</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>95.48107585969069</v>
+        <v>163.7711798939859</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3148658584730745</v>
+        <v>0.08540826194203828</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>844.5115045278085</v>
+        <v>852.5637997254871</v>
       </c>
       <c r="C12" t="n">
-        <v>9.971796298344843e-35</v>
+        <v>4.753657391492477e-36</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1894,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02747582615796434</v>
+        <v>0.1105252683276366</v>
       </c>
       <c r="C13" t="n">
-        <v>0.7476892390341107</v>
+        <v>0.1855952475569177</v>
       </c>
     </row>
     <row r="14">
@@ -1907,10 +1907,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.451098037379448e-05</v>
+        <v>1.454680081131684e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7276733727856318</v>
+        <v>0.877287912162965</v>
       </c>
     </row>
     <row r="15">
@@ -1920,10 +1920,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>2.332312066662045</v>
+        <v>-13.52695697510597</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7912720514613701</v>
+        <v>0.1227557048515465</v>
       </c>
     </row>
     <row r="16">
@@ -1933,10 +1933,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>30.23446672542605</v>
+        <v>28.85710717407472</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0004936202822273044</v>
+        <v>0.001146129829852795</v>
       </c>
     </row>
     <row r="17">
@@ -1946,10 +1946,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1469.504442263122</v>
+        <v>-553.749437521536</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1597749055800292</v>
+        <v>0.5659637695246034</v>
       </c>
     </row>
     <row r="18">
@@ -1959,10 +1959,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>170.6968500009284</v>
+        <v>403.1893724343528</v>
       </c>
       <c r="C18" t="n">
-        <v>0.8473970836023377</v>
+        <v>0.6387955503350533</v>
       </c>
     </row>
   </sheetData>
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1800.61162155229</v>
+        <v>3267.119977674552</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3874789674479382</v>
+        <v>0.1138705977146962</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>983.9619081190256</v>
+        <v>1189.040033502997</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5344822946692884</v>
+        <v>0.4485474285066895</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-524.1462745421029</v>
+        <v>-652.8549897436686</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7112336024291035</v>
+        <v>0.636341692126241</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-433.4480123953506</v>
+        <v>-489.2936433145895</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7594567897562138</v>
+        <v>0.7230854229702255</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1169.815854176946</v>
+        <v>-619.6311357755973</v>
       </c>
       <c r="C6" t="n">
-        <v>0.115849592989244</v>
+        <v>0.4090266529346408</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-898.7217463188604</v>
+        <v>-350.9816383368327</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2068904972985613</v>
+        <v>0.6266241595430238</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>60.28322699697344</v>
+        <v>33.04394504947297</v>
       </c>
       <c r="C8" t="n">
-        <v>0.410749177614729</v>
+        <v>0.6504045156637042</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-768.5404682812514</v>
+        <v>-744.3683362961324</v>
       </c>
       <c r="C9" t="n">
-        <v>1.39348562777601e-05</v>
+        <v>1.935319914589444e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.25690260902381</v>
+        <v>-24.62379939159636</v>
       </c>
       <c r="C10" t="n">
-        <v>0.006645699234356497</v>
+        <v>0.0006765247939885602</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>208.805494434652</v>
+        <v>243.5810186325675</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02936371340020763</v>
+        <v>0.01275507257996811</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2138,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>872.7520061898415</v>
+        <v>878.8675356192309</v>
       </c>
       <c r="C12" t="n">
-        <v>1.286082590984211e-36</v>
+        <v>3.131496929693059e-37</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2151,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.009385556186488186</v>
+        <v>0.1475639942192999</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9150488038118538</v>
+        <v>0.08449785779457053</v>
       </c>
     </row>
     <row r="14">
@@ -2164,10 +2164,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001115544704941876</v>
+        <v>-1.198004367807521e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2667617284509411</v>
+        <v>0.9016861386127408</v>
       </c>
     </row>
     <row r="15">
@@ -2177,10 +2177,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.917610148844754</v>
+        <v>-7.914889913662335</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8311315590625897</v>
+        <v>0.3792064834401331</v>
       </c>
     </row>
     <row r="16">
@@ -2190,10 +2190,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>25.77478992592299</v>
+        <v>12.96558298976127</v>
       </c>
       <c r="C16" t="n">
-        <v>0.003575258897838244</v>
+        <v>0.1474592998424496</v>
       </c>
     </row>
     <row r="17">
@@ -2203,10 +2203,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-874.3915561650681</v>
+        <v>-1061.507170303566</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3926471517664465</v>
+        <v>0.2964378765900873</v>
       </c>
     </row>
     <row r="18">
@@ -2216,10 +2216,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>637.9589680460399</v>
+        <v>-837.2502386786451</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5008192872428135</v>
+        <v>0.3365036213028224</v>
       </c>
     </row>
   </sheetData>
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1465.698802771907</v>
+        <v>3823.963922158712</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5219945880299064</v>
+        <v>0.0762115566534792</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>735.7986555339639</v>
+        <v>-632.1192777847923</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6926842048560269</v>
+        <v>0.7023462004040164</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-216.6971896790596</v>
+        <v>-2157.611584775084</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8967767584820996</v>
+        <v>0.1506985234047664</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>144.4060142458552</v>
+        <v>-1882.384103895762</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9312305981339213</v>
+        <v>0.2096992266606935</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1851.533467121219</v>
+        <v>-463.4587950575283</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01152427436519315</v>
+        <v>0.511298686886692</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1492.131771051945</v>
+        <v>-223.6689450523312</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03408367531212019</v>
+        <v>0.7407094754361985</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>11.56726388006366</v>
+        <v>-25.26535892169878</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8735500181648022</v>
+        <v>0.7316669977909844</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-762.904369746784</v>
+        <v>-710.1761812785018</v>
       </c>
       <c r="C9" t="n">
-        <v>1.280555727638058e-05</v>
+        <v>4.988776335973938e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.1558048638714</v>
+        <v>-14.58462136748803</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02717041706731901</v>
+        <v>0.04559584087401865</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2382,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>182.0451709149598</v>
+        <v>175.5326943734063</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0566411685398542</v>
+        <v>0.06435165718160077</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2395,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>909.8907476268928</v>
+        <v>848.0636157916949</v>
       </c>
       <c r="C12" t="n">
-        <v>6.439034118101179e-40</v>
+        <v>3.253876920349051e-34</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2408,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0554530801249496</v>
+        <v>0.08186533662918033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5192285034142659</v>
+        <v>0.3436295038402986</v>
       </c>
     </row>
     <row r="14">
@@ -2421,10 +2421,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.684483649004646e-05</v>
+        <v>3.088637464395034e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7071008497190758</v>
+        <v>0.7497068746372828</v>
       </c>
     </row>
     <row r="15">
@@ -2434,10 +2434,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>6.993560620656752</v>
+        <v>-6.477162440998058</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4241772972439719</v>
+        <v>0.4699050000909399</v>
       </c>
     </row>
     <row r="16">
@@ -2447,10 +2447,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.51264346122423</v>
+        <v>19.16902002333311</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0009137931301738809</v>
+        <v>0.03303888176491446</v>
       </c>
     </row>
     <row r="17">
@@ -2460,10 +2460,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1382.552972597791</v>
+        <v>-669.9429792863908</v>
       </c>
       <c r="C17" t="n">
-        <v>0.1644445721645356</v>
+        <v>0.4997526484544125</v>
       </c>
     </row>
     <row r="18">
@@ -2473,10 +2473,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-613.4715197826797</v>
+        <v>-500.7278697776031</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4982190364873156</v>
+        <v>0.5712127192110406</v>
       </c>
     </row>
   </sheetData>
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3567.300478589731</v>
+        <v>1845.445872867124</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07606003351429406</v>
+        <v>0.3769992698127987</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1087.763199044845</v>
+        <v>865.3934794046859</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4901760879853653</v>
+        <v>0.5799665721755083</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-1006.398815729288</v>
+        <v>-598.5959604693004</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4646650911557121</v>
+        <v>0.6685724418745167</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-735.4663675706852</v>
+        <v>-315.0239384128138</v>
       </c>
       <c r="C5" t="n">
-        <v>0.59335996675478</v>
+        <v>0.8218186413482688</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1444.971688468196</v>
+        <v>-565.0581911081676</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0337229103542405</v>
+        <v>0.4410342527616526</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1085.448934288898</v>
+        <v>-180.5194042608368</v>
       </c>
       <c r="C7" t="n">
-        <v>0.09481175552814831</v>
+        <v>0.7978377536156922</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>38.79235429612115</v>
+        <v>-15.63259580176042</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5930246764604921</v>
+        <v>0.8293418270337589</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-818.0065082416279</v>
+        <v>-758.1803807500243</v>
       </c>
       <c r="C9" t="n">
-        <v>2.004809937504304e-06</v>
+        <v>1.875870124062019e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2626,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.532531449018908</v>
+        <v>-18.74730818851847</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1899884037886223</v>
+        <v>0.01197386306416029</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2639,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>97.19837702253412</v>
+        <v>195.4921375207801</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3073284727278829</v>
+        <v>0.04225444930142784</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2652,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>877.7445360318625</v>
+        <v>846.5552800327571</v>
       </c>
       <c r="C12" t="n">
-        <v>1.817381736067934e-38</v>
+        <v>8.071717168750783e-35</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2665,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0346779096525195</v>
+        <v>-0.007452071569520581</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6837177974266535</v>
+        <v>0.9318515503763729</v>
       </c>
     </row>
     <row r="14">
@@ -2678,10 +2678,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001154768212914044</v>
+        <v>9.270907735991346e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2360587179925614</v>
+        <v>0.34094195942188</v>
       </c>
     </row>
     <row r="15">
@@ -2691,10 +2691,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.510138895371607</v>
+        <v>-5.81378661177421</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5260568520000355</v>
+        <v>0.5169303126546573</v>
       </c>
     </row>
     <row r="16">
@@ -2704,10 +2704,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.08627882010876</v>
+        <v>24.12526514870713</v>
       </c>
       <c r="C16" t="n">
-        <v>0.04781186685303259</v>
+        <v>0.00868484959234996</v>
       </c>
     </row>
     <row r="17">
@@ -2717,10 +2717,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2641.782570729781</v>
+        <v>-656.5880011381391</v>
       </c>
       <c r="C17" t="n">
-        <v>0.009964583827982602</v>
+        <v>0.5078571502278797</v>
       </c>
     </row>
     <row r="18">
@@ -2730,10 +2730,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>38.54743645576781</v>
+        <v>393.8381562142047</v>
       </c>
       <c r="C18" t="n">
-        <v>0.9653490581125588</v>
+        <v>0.6559978847569383</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ51087014" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ51324029" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ51592262" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ51876375" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ52160871" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ52428709" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ52682291" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ52950494" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ53217300" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ28302677" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ28549760" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ28819365" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ29086549" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ29348594" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ29614986" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ29879675" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ30140254" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ30398302" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ28302677" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ28549760" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ28819365" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ29086549" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ29348594" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ29614986" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ29879675" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ30140254" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ30398302" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ31994215" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ32231540" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ32497724" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ32773884" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ33061413" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ33345746" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ33632568" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ33919004" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ34197198" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4277.413047466433</v>
+        <v>6128.63158635637</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03875977494402693</v>
+        <v>0.001602104530310959</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>650.7805179227928</v>
+        <v>741.7625164649022</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6721166354814443</v>
+        <v>0.6363711515989916</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-798.7592585702121</v>
+        <v>-689.3043926738851</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5574757558962644</v>
+        <v>0.623307186792875</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-641.2189537506891</v>
+        <v>-601.3566856023026</v>
       </c>
       <c r="C5" t="n">
-        <v>0.637978440956906</v>
+        <v>0.6680766888382796</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-3138.776718082726</v>
+        <v>-4273.608745479606</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0002251532563043989</v>
+        <v>1.714833660933513e-07</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-2747.189906446334</v>
+        <v>-3897.884110735289</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0008779033086940579</v>
+        <v>8.317733060270926e-07</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>62.17320690223936</v>
+        <v>93.74096016570279</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3788784879368399</v>
+        <v>0.2005529263577807</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-745.4213232321824</v>
+        <v>-730.9606101923881</v>
       </c>
       <c r="C9" t="n">
-        <v>1.534363553473897e-05</v>
+        <v>2.83055457111611e-05</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-6.099010849092927</v>
+        <v>-12.88585923051318</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4008132461805211</v>
+        <v>0.07983117452144027</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>206.5224892895782</v>
+        <v>153.0126557787039</v>
       </c>
       <c r="C11" t="n">
-        <v>0.02757270588719505</v>
+        <v>0.1202919435874409</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>937.5342886165516</v>
+        <v>896.5784900066897</v>
       </c>
       <c r="C12" t="n">
-        <v>1.745008941198658e-43</v>
+        <v>3.540029616430807e-50</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.07050877805892473</v>
+        <v>-0.01750545268820747</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4000960729624539</v>
+        <v>0.8477923333210449</v>
       </c>
     </row>
     <row r="14">
@@ -622,62 +622,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>6.392445399477508e-05</v>
+        <v>0.0001682260462401557</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4993929968772444</v>
+        <v>0.1154882627995453</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-1.137667805728066</v>
+        <v>14.04875371103945</v>
       </c>
       <c r="C15" t="n">
-        <v>0.8959556752653126</v>
+        <v>0.07409871863524929</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.92939835156433</v>
+        <v>-2972.184076475143</v>
       </c>
       <c r="C16" t="n">
-        <v>0.08626169322395984</v>
+        <v>0.01667126208171688</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1541.873970544868</v>
+        <v>-268.3850651813856</v>
       </c>
       <c r="C17" t="n">
-        <v>0.115724094710808</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-533.5416830351519</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5279140677857199</v>
+        <v>0.7403319470489506</v>
       </c>
     </row>
   </sheetData>
@@ -691,7 +678,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3369.9927680772</v>
+        <v>3152.429572430621</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1029469721354454</v>
+        <v>0.09025892328879784</v>
       </c>
     </row>
     <row r="3">
@@ -736,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>679.1715701426754</v>
+        <v>727.5005192820521</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6721067709185808</v>
+        <v>0.6429941245761097</v>
       </c>
     </row>
     <row r="4">
@@ -749,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-889.9265343093972</v>
+        <v>-380.7417426833628</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5240978790303238</v>
+        <v>0.7809486055295513</v>
       </c>
     </row>
     <row r="5">
@@ -762,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-901.1784577932885</v>
+        <v>-444.0955585640752</v>
       </c>
       <c r="C5" t="n">
-        <v>0.5190099923548968</v>
+        <v>0.7456503855034462</v>
       </c>
     </row>
     <row r="6">
@@ -775,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-444.2010017585528</v>
+        <v>-987.9574630140445</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5332593051512642</v>
+        <v>0.177331591415175</v>
       </c>
     </row>
     <row r="7">
@@ -788,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-175.9191580866675</v>
+        <v>-743.6183485833461</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7958011011927483</v>
+        <v>0.2907627074775255</v>
       </c>
     </row>
     <row r="8">
@@ -801,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>85.86382720997567</v>
+        <v>40.59304011565153</v>
       </c>
       <c r="C8" t="n">
-        <v>0.248008270487921</v>
+        <v>0.5666125166941438</v>
       </c>
     </row>
     <row r="9">
@@ -814,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-536.7930106839892</v>
+        <v>-907.1988336120507</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002326258653593287</v>
+        <v>1.313896473115042e-07</v>
       </c>
     </row>
     <row r="10">
@@ -827,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-23.5058126951497</v>
+        <v>-16.77923529941791</v>
       </c>
       <c r="C10" t="n">
-        <v>0.001507389330430682</v>
+        <v>0.01917890188239021</v>
       </c>
     </row>
     <row r="11">
@@ -840,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>297.4855686446388</v>
+        <v>262.9113114860197</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002425263656795615</v>
+        <v>0.007153653813984138</v>
       </c>
     </row>
     <row r="12">
@@ -853,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>903.8756331509485</v>
+        <v>833.8519506368108</v>
       </c>
       <c r="C12" t="n">
-        <v>6.30910643812644e-39</v>
+        <v>8.791365340857174e-48</v>
       </c>
     </row>
     <row r="13">
@@ -866,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.02124772179998411</v>
+        <v>-0.09239793482164967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8112689823887291</v>
+        <v>0.3009306079462283</v>
       </c>
     </row>
     <row r="14">
@@ -879,62 +866,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.68128996859941e-05</v>
+        <v>0.0002285394046729052</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4538204522745596</v>
+        <v>0.02810634625331042</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-3.433605830955302</v>
+        <v>13.76753824154522</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7007707614176891</v>
+        <v>0.07420099409803733</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>5.663138226878174</v>
+        <v>-3983.688223611321</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5289643927430022</v>
+        <v>0.001047954558785666</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1562.75075072886</v>
+        <v>198.6963844657592</v>
       </c>
       <c r="C17" t="n">
-        <v>0.172927735436045</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-6.701596055638674</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9938630984381198</v>
+        <v>0.8071551190075894</v>
       </c>
     </row>
   </sheetData>
@@ -948,7 +922,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -980,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-187.598265930206</v>
+        <v>1771.608766523398</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9411583291018186</v>
+        <v>0.352257984327374</v>
       </c>
     </row>
     <row r="3">
@@ -993,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2879.418684165393</v>
+        <v>879.8804602551161</v>
       </c>
       <c r="C3" t="n">
-        <v>0.196960833361411</v>
+        <v>0.5814238181501208</v>
       </c>
     </row>
     <row r="4">
@@ -1006,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1506.948579079808</v>
+        <v>-578.1613010358527</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4762709628878309</v>
+        <v>0.6819652298263821</v>
       </c>
     </row>
     <row r="5">
@@ -1019,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1596.381453587444</v>
+        <v>-384.9921168463297</v>
       </c>
       <c r="C5" t="n">
-        <v>0.4506110071333861</v>
+        <v>0.7850336500174014</v>
       </c>
     </row>
     <row r="6">
@@ -1032,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-410.1507383517779</v>
+        <v>-627.0593396364378</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5763282345764232</v>
+        <v>0.3825261240133822</v>
       </c>
     </row>
     <row r="7">
@@ -1045,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-182.0327587146306</v>
+        <v>-319.3654744890054</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7964971758233615</v>
+        <v>0.642090891314427</v>
       </c>
     </row>
     <row r="8">
@@ -1058,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.48201141187888</v>
+        <v>102.6429529833298</v>
       </c>
       <c r="C8" t="n">
-        <v>0.581561179308163</v>
+        <v>0.1603838076276905</v>
       </c>
     </row>
     <row r="9">
@@ -1071,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-582.2800097154025</v>
+        <v>-658.2545191193473</v>
       </c>
       <c r="C9" t="n">
-        <v>0.001042832214081535</v>
+        <v>0.0001938443209626984</v>
       </c>
     </row>
     <row r="10">
@@ -1084,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.92539101059571</v>
+        <v>-15.25724604871543</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04614877752621836</v>
+        <v>0.03964694238309936</v>
       </c>
     </row>
     <row r="11">
@@ -1097,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>210.6720110060962</v>
+        <v>110.0198292606592</v>
       </c>
       <c r="C11" t="n">
-        <v>0.03003000016846952</v>
+        <v>0.2616338963333728</v>
       </c>
     </row>
     <row r="12">
@@ -1110,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>895.4387667254641</v>
+        <v>815.5246049083092</v>
       </c>
       <c r="C12" t="n">
-        <v>7.49933127833207e-39</v>
+        <v>1.11242240342128e-42</v>
       </c>
     </row>
     <row r="13">
@@ -1123,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.05898330156913055</v>
+        <v>-0.02145570746586373</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4964311055382119</v>
+        <v>0.8156732100044526</v>
       </c>
     </row>
     <row r="14">
@@ -1136,62 +1110,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.160209949886989e-05</v>
+        <v>0.0001263783907332678</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7460987422856336</v>
+        <v>0.2396319676051115</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.131165450774171</v>
+        <v>25.12519561957002</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6477859231922174</v>
+        <v>0.001584895233531904</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.37281574455531</v>
+        <v>-2531.58729930096</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05361734057523689</v>
+        <v>0.0408834136533307</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-858.5007052015264</v>
+        <v>-130.9209535836848</v>
       </c>
       <c r="C17" t="n">
-        <v>0.398410064327552</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-56.90803087392851</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9477824471513411</v>
+        <v>0.873905553396279</v>
       </c>
     </row>
   </sheetData>
@@ -1205,7 +1166,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1237,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>624.8545007452929</v>
+        <v>-992.5449895150105</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7649526364957459</v>
+        <v>0.6776613159461149</v>
       </c>
     </row>
     <row r="3">
@@ -1250,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>812.7442753196278</v>
+        <v>3243.130357717044</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6152568704176673</v>
+        <v>0.1411899475000227</v>
       </c>
     </row>
     <row r="4">
@@ -1263,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-592.5497103697237</v>
+        <v>1652.130484428143</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6694625509088861</v>
+        <v>0.4294095073894689</v>
       </c>
     </row>
     <row r="5">
@@ -1276,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-413.8877056254137</v>
+        <v>1822.211414953294</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7656500755235981</v>
+        <v>0.3830528179359831</v>
       </c>
     </row>
     <row r="6">
@@ -1289,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>586.3938831909734</v>
+        <v>-718.7135567180715</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4443589214354478</v>
+        <v>0.3243673169119675</v>
       </c>
     </row>
     <row r="7">
@@ -1302,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1101.90298022145</v>
+        <v>-393.7683624094876</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1362920354878527</v>
+        <v>0.5741089642832954</v>
       </c>
     </row>
     <row r="8">
@@ -1315,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>18.11563517701673</v>
+        <v>73.98111090044067</v>
       </c>
       <c r="C8" t="n">
-        <v>0.801851864964724</v>
+        <v>0.304349337721889</v>
       </c>
     </row>
     <row r="9">
@@ -1328,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-651.4309999099737</v>
+        <v>-464.0665428468833</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0002053449884322684</v>
+        <v>0.007364437738725056</v>
       </c>
     </row>
     <row r="10">
@@ -1341,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.31281610477373</v>
+        <v>-21.87354953877693</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01276324815352929</v>
+        <v>0.003084694228310315</v>
       </c>
     </row>
     <row r="11">
@@ -1354,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>278.1336514584567</v>
+        <v>171.2676060619223</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003996200381189237</v>
+        <v>0.07754967034514382</v>
       </c>
     </row>
     <row r="12">
@@ -1367,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>930.2618143584923</v>
+        <v>901.1598349060509</v>
       </c>
       <c r="C12" t="n">
-        <v>4.144054654319743e-40</v>
+        <v>2.131364529045141e-50</v>
       </c>
     </row>
     <row r="13">
@@ -1380,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1242566021817058</v>
+        <v>0.01224037714261638</v>
       </c>
       <c r="C13" t="n">
-        <v>0.146615286974343</v>
+        <v>0.8925737757913275</v>
       </c>
     </row>
     <row r="14">
@@ -1393,62 +1354,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.973889270385079e-05</v>
+        <v>0.0001282916667464448</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6806157132416004</v>
+        <v>0.2242317075654937</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-4.135125975651922</v>
+        <v>24.49532494229645</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6508728665761301</v>
+        <v>0.001922928406572273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>17.00261384938226</v>
+        <v>-1771.890989177672</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05929340535874917</v>
+        <v>0.148838574207947</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-866.6548785099508</v>
+        <v>353.2575432010269</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3881527100985875</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-179.6893312434983</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.8364626162648756</v>
+        <v>0.6601692154494226</v>
       </c>
     </row>
   </sheetData>
@@ -1462,7 +1410,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1494,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2109.121837919579</v>
+        <v>1352.465421514045</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3238557464788989</v>
+        <v>0.4820141620626898</v>
       </c>
     </row>
     <row r="3">
@@ -1507,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>494.7856443586022</v>
+        <v>1297.174963427451</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7628897939159359</v>
+        <v>0.4184784639686521</v>
       </c>
     </row>
     <row r="4">
@@ -1520,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-635.2179991663697</v>
+        <v>-360.8042063068489</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6539010191414121</v>
+        <v>0.7990671191657447</v>
       </c>
     </row>
     <row r="5">
@@ -1533,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-477.4750432610829</v>
+        <v>-107.914853969996</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7360607444251301</v>
+        <v>0.9393296530528006</v>
       </c>
     </row>
     <row r="6">
@@ -1546,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-660.7762221221117</v>
+        <v>-1724.466859640051</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3591433551995613</v>
+        <v>0.01389506988054275</v>
       </c>
     </row>
     <row r="7">
@@ -1559,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-229.4125158160913</v>
+        <v>-1205.405703877113</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7390984690086169</v>
+        <v>0.0711540624413842</v>
       </c>
     </row>
     <row r="8">
@@ -1572,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>75.40000730905581</v>
+        <v>33.59531841304135</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3118261722076194</v>
+        <v>0.6480889293598358</v>
       </c>
     </row>
     <row r="9">
@@ -1585,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-682.9503089260122</v>
+        <v>-763.3684970458689</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001313675388326427</v>
+        <v>1.508219301984817e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1598,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-11.8610504071351</v>
+        <v>-15.81000441670265</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1158410524391134</v>
+        <v>0.03147701903096151</v>
       </c>
     </row>
     <row r="11">
@@ -1611,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>263.2100225950941</v>
+        <v>178.4947450873308</v>
       </c>
       <c r="C11" t="n">
-        <v>0.006941944909952329</v>
+        <v>0.0721754495341429</v>
       </c>
     </row>
     <row r="12">
@@ -1624,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>867.9794994086307</v>
+        <v>854.7521499305057</v>
       </c>
       <c r="C12" t="n">
-        <v>1.91726956999934e-33</v>
+        <v>3.512081390910265e-44</v>
       </c>
     </row>
     <row r="13">
@@ -1637,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.09065959137100374</v>
+        <v>0.0101207945446956</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3052203718848717</v>
+        <v>0.9129120613931473</v>
       </c>
     </row>
     <row r="14">
@@ -1650,62 +1598,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-3.574704240834407e-06</v>
+        <v>0.0001406047859478885</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9712884866712448</v>
+        <v>0.1932458472466708</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.784078979114367</v>
+        <v>32.69903416280695</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3999523168546087</v>
+        <v>5.520515227919102e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>14.79626163889991</v>
+        <v>-2368.5274929242</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1105329106152298</v>
+        <v>0.05441815917557499</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-526.7701395666797</v>
+        <v>211.2698309936941</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6070716010638878</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>74.07268536622507</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.9330970988290668</v>
+        <v>0.7988603645733837</v>
       </c>
     </row>
   </sheetData>
@@ -1719,7 +1654,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1751,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-772.1923568433481</v>
+        <v>3975.511474633319</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7337746937426034</v>
+        <v>0.04372759488214549</v>
       </c>
     </row>
     <row r="3">
@@ -1764,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1579.850898565792</v>
+        <v>139.9010052545104</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3714968543831356</v>
+        <v>0.9340291378162723</v>
       </c>
     </row>
     <row r="4">
@@ -1777,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>650.7916229898574</v>
+        <v>-2020.129620693633</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6892831510082706</v>
+        <v>0.1797969697338182</v>
       </c>
     </row>
     <row r="5">
@@ -1790,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>608.6077445901172</v>
+        <v>-1844.279218866018</v>
       </c>
       <c r="C5" t="n">
-        <v>0.708838148508187</v>
+        <v>0.2204546269671944</v>
       </c>
     </row>
     <row r="6">
@@ -1803,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>354.6877078493276</v>
+        <v>-1582.733998665059</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6445494757138097</v>
+        <v>0.02771868506482797</v>
       </c>
     </row>
     <row r="7">
@@ -1816,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>645.0136836953482</v>
+        <v>-1396.132646914831</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3832923492187938</v>
+        <v>0.04259549930687255</v>
       </c>
     </row>
     <row r="8">
@@ -1829,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>34.12980254262438</v>
+        <v>40.31859128790364</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6330446100209873</v>
+        <v>0.5703290534556339</v>
       </c>
     </row>
     <row r="9">
@@ -1842,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-708.6083776455691</v>
+        <v>-874.2929851943259</v>
       </c>
       <c r="C9" t="n">
-        <v>3.621862183391669e-05</v>
+        <v>4.579373483901947e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1855,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-8.947600951061311</v>
+        <v>-17.0856263293275</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2201161480575676</v>
+        <v>0.01956875459187294</v>
       </c>
     </row>
     <row r="11">
@@ -1868,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>163.7711798939859</v>
+        <v>64.1951767067218</v>
       </c>
       <c r="C11" t="n">
-        <v>0.08540826194203828</v>
+        <v>0.5107634434315507</v>
       </c>
     </row>
     <row r="12">
@@ -1881,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>852.5637997254871</v>
+        <v>816.1649369285603</v>
       </c>
       <c r="C12" t="n">
-        <v>4.753657391492477e-36</v>
+        <v>1.463260588081948e-42</v>
       </c>
     </row>
     <row r="13">
@@ -1894,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1105252683276366</v>
+        <v>-0.00123969877748947</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1855952475569177</v>
+        <v>0.9889638902654584</v>
       </c>
     </row>
     <row r="14">
@@ -1907,62 +1842,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.454680081131684e-05</v>
+        <v>9.004070653852967e-05</v>
       </c>
       <c r="C14" t="n">
-        <v>0.877287912162965</v>
+        <v>0.3920422411459218</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-13.52695697510597</v>
+        <v>30.52573199148334</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1227557048515465</v>
+        <v>9.558929571576136e-05</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>28.85710717407472</v>
+        <v>-2267.914121630711</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001146129829852795</v>
+        <v>0.06150697879318079</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-553.749437521536</v>
+        <v>322.4065555419807</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5659637695246034</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>403.1893724343528</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6387955503350533</v>
+        <v>0.6855549841227726</v>
       </c>
     </row>
   </sheetData>
@@ -1976,7 +1898,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2008,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3267.119977674552</v>
+        <v>1892.952779369856</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1138705977146962</v>
+        <v>0.3281201118131314</v>
       </c>
     </row>
     <row r="3">
@@ -2021,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1189.040033502997</v>
+        <v>1106.595030239965</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4485474285066895</v>
+        <v>0.4837124064173236</v>
       </c>
     </row>
     <row r="4">
@@ -2034,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-652.8549897436686</v>
+        <v>-401.2605390820035</v>
       </c>
       <c r="C4" t="n">
-        <v>0.636341692126241</v>
+        <v>0.7765020840912465</v>
       </c>
     </row>
     <row r="5">
@@ -2047,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-489.2936433145895</v>
+        <v>-329.6835385618469</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7230854229702255</v>
+        <v>0.8154703241324773</v>
       </c>
     </row>
     <row r="6">
@@ -2060,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-619.6311357755973</v>
+        <v>-1123.491091447517</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4090266529346408</v>
+        <v>0.1302404566142754</v>
       </c>
     </row>
     <row r="7">
@@ -2073,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-350.9816383368327</v>
+        <v>-861.6041352264338</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6266241595430238</v>
+        <v>0.2252486401149111</v>
       </c>
     </row>
     <row r="8">
@@ -2086,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.04394504947297</v>
+        <v>67.1834313071863</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6504045156637042</v>
+        <v>0.3584428346786005</v>
       </c>
     </row>
     <row r="9">
@@ -2099,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-744.3683362961324</v>
+        <v>-760.3257071559456</v>
       </c>
       <c r="C9" t="n">
-        <v>1.935319914589444e-05</v>
+        <v>1.657371516404088e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2112,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-24.62379939159636</v>
+        <v>-20.70891719050039</v>
       </c>
       <c r="C10" t="n">
-        <v>0.0006765247939885602</v>
+        <v>0.005510147746746078</v>
       </c>
     </row>
     <row r="11">
@@ -2125,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>243.5810186325675</v>
+        <v>156.9149625598168</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01275507257996811</v>
+        <v>0.1109111862911736</v>
       </c>
     </row>
     <row r="12">
@@ -2138,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>878.8675356192309</v>
+        <v>851.932768741537</v>
       </c>
       <c r="C12" t="n">
-        <v>3.131496929693059e-37</v>
+        <v>9.378895406385443e-45</v>
       </c>
     </row>
     <row r="13">
@@ -2151,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.1475639942192999</v>
+        <v>-0.0514293564745984</v>
       </c>
       <c r="C13" t="n">
-        <v>0.08449785779457053</v>
+        <v>0.5807700557278599</v>
       </c>
     </row>
     <row r="14">
@@ -2164,62 +2086,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.198004367807521e-05</v>
+        <v>0.0001791234279002121</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9016861386127408</v>
+        <v>0.09803320121808687</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-7.914889913662335</v>
+        <v>27.03354427151582</v>
       </c>
       <c r="C15" t="n">
-        <v>0.3792064834401331</v>
+        <v>0.0008173009342159986</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>12.96558298976127</v>
+        <v>-2412.087355536364</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1474592998424496</v>
+        <v>0.05369449503447796</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-1061.507170303566</v>
+        <v>547.1469484846209</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2964378765900873</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-837.2502386786451</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.3365036213028224</v>
+        <v>0.5227482165535882</v>
       </c>
     </row>
   </sheetData>
@@ -2233,7 +2142,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2265,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3823.963922158712</v>
+        <v>2200.385336633353</v>
       </c>
       <c r="C2" t="n">
-        <v>0.0762115566534792</v>
+        <v>0.3003354387804443</v>
       </c>
     </row>
     <row r="3">
@@ -2278,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-632.1192777847923</v>
+        <v>896.3077157495952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7023462004040164</v>
+        <v>0.6288320070380906</v>
       </c>
     </row>
     <row r="4">
@@ -2291,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2157.611584775084</v>
+        <v>-58.93909641134678</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1506985234047664</v>
+        <v>0.9717635611867633</v>
       </c>
     </row>
     <row r="5">
@@ -2304,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1882.384103895762</v>
+        <v>293.1192438426311</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2096992266606935</v>
+        <v>0.8604194634690272</v>
       </c>
     </row>
     <row r="6">
@@ -2317,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-463.4587950575283</v>
+        <v>-1820.30723987926</v>
       </c>
       <c r="C6" t="n">
-        <v>0.511298686886692</v>
+        <v>0.01284517054352739</v>
       </c>
     </row>
     <row r="7">
@@ -2330,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-223.6689450523312</v>
+        <v>-1481.30104157535</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7407094754361985</v>
+        <v>0.03502468667192627</v>
       </c>
     </row>
     <row r="8">
@@ -2343,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-25.26535892169878</v>
+        <v>16.05580126718544</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7316669977909844</v>
+        <v>0.8249985354591709</v>
       </c>
     </row>
     <row r="9">
@@ -2356,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-710.1761812785018</v>
+        <v>-759.8930817256595</v>
       </c>
       <c r="C9" t="n">
-        <v>4.988776335973938e-05</v>
+        <v>1.344967765023693e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2369,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-14.58462136748803</v>
+        <v>-16.63304899765813</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04559584087401865</v>
+        <v>0.02297791182794801</v>
       </c>
     </row>
     <row r="11">
@@ -2382,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>175.5326943734063</v>
+        <v>134.2273343286523</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06435165718160077</v>
+        <v>0.1740945411992597</v>
       </c>
     </row>
     <row r="12">
@@ -2395,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>848.0636157916949</v>
+        <v>849.9969350331351</v>
       </c>
       <c r="C12" t="n">
-        <v>3.253876920349051e-34</v>
+        <v>2.890901659679411e-46</v>
       </c>
     </row>
     <row r="13">
@@ -2408,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.08186533662918033</v>
+        <v>-0.01295005685148033</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3436295038402986</v>
+        <v>0.8864767819129149</v>
       </c>
     </row>
     <row r="14">
@@ -2421,62 +2330,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>3.088637464395034e-05</v>
+        <v>0.0001547982144726004</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7497068746372828</v>
+        <v>0.1445649555504072</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-6.477162440998058</v>
+        <v>27.04072879828658</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4699050000909399</v>
+        <v>0.0005150870882406273</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>19.16902002333311</v>
+        <v>-2796.844890085613</v>
       </c>
       <c r="C16" t="n">
-        <v>0.03303888176491446</v>
+        <v>0.02306757492818497</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-669.9429792863908</v>
+        <v>-99.73445504575864</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4997526484544125</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>-500.7278697776031</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5712127192110406</v>
+        <v>0.9030569116963992</v>
       </c>
     </row>
   </sheetData>
@@ -2490,7 +2386,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2522,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1845.445872867124</v>
+        <v>2896.279225386356</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3769992698127987</v>
+        <v>0.1171166098187904</v>
       </c>
     </row>
     <row r="3">
@@ -2535,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>865.3934794046859</v>
+        <v>1408.098341716098</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5799665721755083</v>
+        <v>0.3706341519875211</v>
       </c>
     </row>
     <row r="4">
@@ -2548,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-598.5959604693004</v>
+        <v>-709.4855557826261</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6685724418745167</v>
+        <v>0.6056619837867652</v>
       </c>
     </row>
     <row r="5">
@@ -2561,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-315.0239384128138</v>
+        <v>-439.0127347078846</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8218186413482688</v>
+        <v>0.7493902262237987</v>
       </c>
     </row>
     <row r="6">
@@ -2574,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-565.0581911081676</v>
+        <v>-1457.183745767089</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4410342527616526</v>
+        <v>0.03195087918515456</v>
       </c>
     </row>
     <row r="7">
@@ -2587,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-180.5194042608368</v>
+        <v>-1102.215525351046</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7978377536156922</v>
+        <v>0.08922820895734414</v>
       </c>
     </row>
     <row r="8">
@@ -2600,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-15.63259580176042</v>
+        <v>48.14995676665654</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8293418270337589</v>
+        <v>0.5061020899214592</v>
       </c>
     </row>
     <row r="9">
@@ -2613,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-758.1803807500243</v>
+        <v>-822.7718601733131</v>
       </c>
       <c r="C9" t="n">
-        <v>1.875870124062019e-05</v>
+        <v>1.714781943039124e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2626,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-18.74730818851847</v>
+        <v>-9.870217800736608</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01197386306416029</v>
+        <v>0.1748080037870555</v>
       </c>
     </row>
     <row r="11">
@@ -2639,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>195.4921375207801</v>
+        <v>55.46912665865192</v>
       </c>
       <c r="C11" t="n">
-        <v>0.04225444930142784</v>
+        <v>0.5700044990996154</v>
       </c>
     </row>
     <row r="12">
@@ -2652,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>846.5552800327571</v>
+        <v>872.2624658936124</v>
       </c>
       <c r="C12" t="n">
-        <v>8.071717168750783e-35</v>
+        <v>2.038183690540559e-49</v>
       </c>
     </row>
     <row r="13">
@@ -2665,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.007452071569520581</v>
+        <v>-0.01395262561000612</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9318515503763729</v>
+        <v>0.8748276494141091</v>
       </c>
     </row>
     <row r="14">
@@ -2678,62 +2574,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.270907735991346e-05</v>
+        <v>0.0001788568429304869</v>
       </c>
       <c r="C14" t="n">
-        <v>0.34094195942188</v>
+        <v>0.08392906973377279</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IntersecDensity_res</t>
+          <t>street_length_res</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-5.81378661177421</v>
+        <v>21.73785944607377</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5169303126546573</v>
+        <v>0.005379248379740348</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>street_length_res</t>
+          <t>LU_Comm_res</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.12526514870713</v>
+        <v>-3892.520021881988</v>
       </c>
       <c r="C16" t="n">
-        <v>0.00868484959234996</v>
+        <v>0.001091560689194903</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>LU_Comm_res</t>
+          <t>LU_UrbFab_res</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-656.5880011381391</v>
+        <v>-31.9370180742917</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5078571502278797</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>LU_UrbFab_res</t>
-        </is>
-      </c>
-      <c r="B18" t="n">
-        <v>393.8381562142047</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.6559978847569383</v>
+        <v>0.9680496885801682</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/ML_Results/dist_commute/Dijon.xlsx
+++ b/outputs/ML_Results/dist_commute/Dijon.xlsx
@@ -7,15 +7,15 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="summ31994215" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="summ32231540" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="summ32497724" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="summ32773884" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="summ33061413" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="summ33345746" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="summ33632568" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="summ33919004" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="summ34197198" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="summ53972104" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="summ54186712" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="summ54418479" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="summ54647551" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="summ54895300" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="summ55128766" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="summ55361260" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="summ55592864" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="summ55820887" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -466,10 +466,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6128.63158635637</v>
+        <v>6128.631586697366</v>
       </c>
       <c r="C2" t="n">
-        <v>0.001602104530310959</v>
+        <v>0.001602104525033336</v>
       </c>
     </row>
     <row r="3">
@@ -479,10 +479,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>741.7625164649022</v>
+        <v>741.7625162166643</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6363711515989916</v>
+        <v>0.6363711515995261</v>
       </c>
     </row>
     <row r="4">
@@ -492,10 +492,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-689.3043926738851</v>
+        <v>-689.3043927444103</v>
       </c>
       <c r="C4" t="n">
-        <v>0.623307186792875</v>
+        <v>0.6233071867246962</v>
       </c>
     </row>
     <row r="5">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-601.3566856023026</v>
+        <v>-601.356685688783</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6680766888382796</v>
+        <v>0.6680766887574103</v>
       </c>
     </row>
     <row r="6">
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-4273.608745479606</v>
+        <v>-4273.608745399096</v>
       </c>
       <c r="C6" t="n">
-        <v>1.714833660933513e-07</v>
+        <v>1.71483366198899e-07</v>
       </c>
     </row>
     <row r="7">
@@ -531,10 +531,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-3897.884110735289</v>
+        <v>-3897.884110651209</v>
       </c>
       <c r="C7" t="n">
-        <v>8.317733060270926e-07</v>
+        <v>8.31773306447012e-07</v>
       </c>
     </row>
     <row r="8">
@@ -544,10 +544,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>93.74096016570279</v>
+        <v>93.74096015811394</v>
       </c>
       <c r="C8" t="n">
-        <v>0.2005529263577807</v>
+        <v>0.2005529263927653</v>
       </c>
     </row>
     <row r="9">
@@ -557,10 +557,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-730.9606101923881</v>
+        <v>-730.9606101898416</v>
       </c>
       <c r="C9" t="n">
-        <v>2.83055457111611e-05</v>
+        <v>2.830554571229944e-05</v>
       </c>
     </row>
     <row r="10">
@@ -570,10 +570,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-12.88585923051318</v>
+        <v>-12.88585923042667</v>
       </c>
       <c r="C10" t="n">
-        <v>0.07983117452144027</v>
+        <v>0.0798311745233915</v>
       </c>
     </row>
     <row r="11">
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>153.0126557787039</v>
+        <v>153.0126557732659</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1202919435874409</v>
+        <v>0.1202919435991676</v>
       </c>
     </row>
     <row r="12">
@@ -596,10 +596,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>896.5784900066897</v>
+        <v>896.578490063509</v>
       </c>
       <c r="C12" t="n">
-        <v>3.540029616430807e-50</v>
+        <v>3.540029520336832e-50</v>
       </c>
     </row>
     <row r="13">
@@ -609,10 +609,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01750545268820747</v>
+        <v>-1.750545265205534</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8477923333210449</v>
+        <v>0.8477923336319583</v>
       </c>
     </row>
     <row r="14">
@@ -622,10 +622,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001682260462401557</v>
+        <v>168.2260463296566</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1154882627995453</v>
+        <v>0.1154882626254895</v>
       </c>
     </row>
     <row r="15">
@@ -635,10 +635,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>14.04875371103945</v>
+        <v>14.04875371103484</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07409871863524929</v>
+        <v>0.07409871863534268</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2972.184076475143</v>
+        <v>-29.72184076475439</v>
       </c>
       <c r="C16" t="n">
-        <v>0.01667126208171688</v>
+        <v>0.01667126208170599</v>
       </c>
     </row>
     <row r="17">
@@ -661,10 +661,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-268.3850651813856</v>
+        <v>-2.683850651818143</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7403319470489506</v>
+        <v>0.7403319470485504</v>
       </c>
     </row>
   </sheetData>
@@ -710,10 +710,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3152.429572430621</v>
+        <v>3152.4295721489</v>
       </c>
       <c r="C2" t="n">
-        <v>0.09025892328879784</v>
+        <v>0.09025892338613895</v>
       </c>
     </row>
     <row r="3">
@@ -723,10 +723,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>727.5005192820521</v>
+        <v>727.500519323111</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6429941245761097</v>
+        <v>0.6429941245752135</v>
       </c>
     </row>
     <row r="4">
@@ -736,10 +736,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-380.7417426833628</v>
+        <v>-380.7417426547925</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7809486055295513</v>
+        <v>0.7809486055538526</v>
       </c>
     </row>
     <row r="5">
@@ -749,10 +749,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-444.0955585640752</v>
+        <v>-444.0955585800115</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7456503855034462</v>
+        <v>0.7456503854893248</v>
       </c>
     </row>
     <row r="6">
@@ -762,10 +762,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-987.9574630140445</v>
+        <v>-987.9574630564563</v>
       </c>
       <c r="C6" t="n">
-        <v>0.177331591415175</v>
+        <v>0.1773315913963616</v>
       </c>
     </row>
     <row r="7">
@@ -775,10 +775,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-743.6183485833461</v>
+        <v>-743.6183486337303</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2907627074775255</v>
+        <v>0.2907627074461477</v>
       </c>
     </row>
     <row r="8">
@@ -788,10 +788,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.59304011565153</v>
+        <v>40.59304010618376</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5666125166941438</v>
+        <v>0.5666125167830743</v>
       </c>
     </row>
     <row r="9">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-907.1988336120507</v>
+        <v>-907.1988336246644</v>
       </c>
       <c r="C9" t="n">
-        <v>1.313896473115042e-07</v>
+        <v>1.31389647289124e-07</v>
       </c>
     </row>
     <row r="10">
@@ -814,10 +814,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.77923529941791</v>
+        <v>-16.77923529654774</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01917890188239021</v>
+        <v>0.01917890190119265</v>
       </c>
     </row>
     <row r="11">
@@ -827,10 +827,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>262.9113114860197</v>
+        <v>262.9113115250593</v>
       </c>
       <c r="C11" t="n">
-        <v>0.007153653813984138</v>
+        <v>0.007153653806875208</v>
       </c>
     </row>
     <row r="12">
@@ -840,10 +840,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>833.8519506368108</v>
+        <v>833.8519506195344</v>
       </c>
       <c r="C12" t="n">
-        <v>8.791365340857174e-48</v>
+        <v>8.791365423512144e-48</v>
       </c>
     </row>
     <row r="13">
@@ -853,10 +853,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.09239793482164967</v>
+        <v>-9.239793482680945</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3009306079462283</v>
+        <v>0.3009306079188269</v>
       </c>
     </row>
     <row r="14">
@@ -866,10 +866,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0002285394046729052</v>
+        <v>228.5394046111781</v>
       </c>
       <c r="C14" t="n">
-        <v>0.02810634625331042</v>
+        <v>0.02810634627951484</v>
       </c>
     </row>
     <row r="15">
@@ -879,10 +879,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>13.76753824154522</v>
+        <v>13.76753824154497</v>
       </c>
       <c r="C15" t="n">
-        <v>0.07420099409803733</v>
+        <v>0.07420099409804355</v>
       </c>
     </row>
     <row r="16">
@@ -892,10 +892,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3983.688223611321</v>
+        <v>-39.83688223611377</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001047954558785666</v>
+        <v>0.0010479545587855</v>
       </c>
     </row>
     <row r="17">
@@ -905,10 +905,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>198.6963844657592</v>
+        <v>1.986963844657631</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8071551190075894</v>
+        <v>0.8071551190075853</v>
       </c>
     </row>
   </sheetData>
@@ -954,10 +954,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1771.608766523398</v>
+        <v>1771.608766195799</v>
       </c>
       <c r="C2" t="n">
-        <v>0.352257984327374</v>
+        <v>0.3522579845187584</v>
       </c>
     </row>
     <row r="3">
@@ -967,10 +967,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>879.8804602551161</v>
+        <v>879.8804602228499</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5814238181501208</v>
+        <v>0.5814238181492508</v>
       </c>
     </row>
     <row r="4">
@@ -980,10 +980,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-578.1613010358527</v>
+        <v>-578.1613010473025</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6819652298263821</v>
+        <v>0.6819652298164705</v>
       </c>
     </row>
     <row r="5">
@@ -993,10 +993,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-384.9921168463297</v>
+        <v>-384.9921168157432</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7850336500174014</v>
+        <v>0.7850336500412471</v>
       </c>
     </row>
     <row r="6">
@@ -1006,10 +1006,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-627.0593396364378</v>
+        <v>-627.0593397283781</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3825261240133822</v>
+        <v>0.3825261239433546</v>
       </c>
     </row>
     <row r="7">
@@ -1019,10 +1019,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-319.3654744890054</v>
+        <v>-319.3654745488381</v>
       </c>
       <c r="C7" t="n">
-        <v>0.642090891314427</v>
+        <v>0.642090891253261</v>
       </c>
     </row>
     <row r="8">
@@ -1032,10 +1032,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>102.6429529833298</v>
+        <v>102.642953046824</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1603838076276905</v>
+        <v>0.1603838073829228</v>
       </c>
     </row>
     <row r="9">
@@ -1045,10 +1045,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-658.2545191193473</v>
+        <v>-658.2545191190393</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0001938443209626984</v>
+        <v>0.0001938443209635844</v>
       </c>
     </row>
     <row r="10">
@@ -1058,10 +1058,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.25724604871543</v>
+        <v>-15.25724604561697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03964694238309936</v>
+        <v>0.03964694242266151</v>
       </c>
     </row>
     <row r="11">
@@ -1071,10 +1071,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.0198292606592</v>
+        <v>110.0198293030455</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2616338963333728</v>
+        <v>0.2616338961639818</v>
       </c>
     </row>
     <row r="12">
@@ -1084,10 +1084,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>815.5246049083092</v>
+        <v>815.5246049334692</v>
       </c>
       <c r="C12" t="n">
-        <v>1.11242240342128e-42</v>
+        <v>1.112422392136699e-42</v>
       </c>
     </row>
     <row r="13">
@@ -1097,10 +1097,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.02145570746586373</v>
+        <v>-2.145570745191819</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8156732100044526</v>
+        <v>0.8156732101225154</v>
       </c>
     </row>
     <row r="14">
@@ -1110,10 +1110,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001263783907332678</v>
+        <v>126.3783904288246</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2396319676051115</v>
+        <v>0.2396319686006798</v>
       </c>
     </row>
     <row r="15">
@@ -1123,10 +1123,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>25.12519561957002</v>
+        <v>25.12519561956873</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001584895233531904</v>
+        <v>0.00158489523353273</v>
       </c>
     </row>
     <row r="16">
@@ -1136,10 +1136,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2531.58729930096</v>
+        <v>-25.31587299301342</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0408834136533307</v>
+        <v>0.04088341365330019</v>
       </c>
     </row>
     <row r="17">
@@ -1149,10 +1149,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-130.9209535836848</v>
+        <v>-1.30920953584083</v>
       </c>
       <c r="C17" t="n">
-        <v>0.873905553396279</v>
+        <v>0.8739055533958981</v>
       </c>
     </row>
   </sheetData>
@@ -1198,10 +1198,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-992.5449895150105</v>
+        <v>-992.5449911412725</v>
       </c>
       <c r="C2" t="n">
-        <v>0.6776613159461149</v>
+        <v>0.6776613155623206</v>
       </c>
     </row>
     <row r="3">
@@ -1211,10 +1211,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>3243.130357717044</v>
+        <v>3243.130358192252</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1411899475000227</v>
+        <v>0.1411899475002064</v>
       </c>
     </row>
     <row r="4">
@@ -1224,10 +1224,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1652.130484428143</v>
+        <v>1652.130485129378</v>
       </c>
       <c r="C4" t="n">
-        <v>0.4294095073894689</v>
+        <v>0.4294095072929774</v>
       </c>
     </row>
     <row r="5">
@@ -1237,10 +1237,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1822.211414953294</v>
+        <v>1822.211415323962</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3830528179359831</v>
+        <v>0.383052817893387</v>
       </c>
     </row>
     <row r="6">
@@ -1250,10 +1250,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-718.7135567180715</v>
+        <v>-718.7135567003788</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3243673169119675</v>
+        <v>0.3243673169238688</v>
       </c>
     </row>
     <row r="7">
@@ -1263,10 +1263,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-393.7683624094876</v>
+        <v>-393.7683622818966</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5741089642832954</v>
+        <v>0.5741089644073458</v>
       </c>
     </row>
     <row r="8">
@@ -1276,10 +1276,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>73.98111090044067</v>
+        <v>73.98111091898117</v>
       </c>
       <c r="C8" t="n">
-        <v>0.304349337721889</v>
+        <v>0.3043493375984648</v>
       </c>
     </row>
     <row r="9">
@@ -1289,10 +1289,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-464.0665428468833</v>
+        <v>-464.0665427771289</v>
       </c>
       <c r="C9" t="n">
-        <v>0.007364437738725056</v>
+        <v>0.007364437747558849</v>
       </c>
     </row>
     <row r="10">
@@ -1302,10 +1302,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-21.87354953877693</v>
+        <v>-21.87354954884198</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003084694228310315</v>
+        <v>0.003084694215988156</v>
       </c>
     </row>
     <row r="11">
@@ -1315,10 +1315,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>171.2676060619223</v>
+        <v>171.2676059685471</v>
       </c>
       <c r="C11" t="n">
-        <v>0.07754967034514382</v>
+        <v>0.07754967050453697</v>
       </c>
     </row>
     <row r="12">
@@ -1328,10 +1328,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>901.1598349060509</v>
+        <v>901.1598349783086</v>
       </c>
       <c r="C12" t="n">
-        <v>2.131364529045141e-50</v>
+        <v>2.131364493812987e-50</v>
       </c>
     </row>
     <row r="13">
@@ -1341,10 +1341,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01224037714261638</v>
+        <v>1.22403773603589</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8925737757913275</v>
+        <v>0.892573773889642</v>
       </c>
     </row>
     <row r="14">
@@ -1354,10 +1354,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001282916667464448</v>
+        <v>128.2916665207936</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2242317075654937</v>
+        <v>0.224231708414894</v>
       </c>
     </row>
     <row r="15">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>24.49532494229645</v>
+        <v>24.49532494229255</v>
       </c>
       <c r="C15" t="n">
-        <v>0.001922928406572273</v>
+        <v>0.001922928406575414</v>
       </c>
     </row>
     <row r="16">
@@ -1380,10 +1380,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1771.890989177672</v>
+        <v>-17.71890989177934</v>
       </c>
       <c r="C16" t="n">
-        <v>0.148838574207947</v>
+        <v>0.1488385742078872</v>
       </c>
     </row>
     <row r="17">
@@ -1393,10 +1393,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>353.2575432010269</v>
+        <v>3.532575432007076</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6601692154494226</v>
+        <v>0.6601692154497106</v>
       </c>
     </row>
   </sheetData>
@@ -1442,10 +1442,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1352.465421514045</v>
+        <v>1352.465420333404</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4820141620626898</v>
+        <v>0.4820141626749491</v>
       </c>
     </row>
     <row r="3">
@@ -1455,10 +1455,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1297.174963427451</v>
+        <v>1297.174963252387</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4184784639686521</v>
+        <v>0.418478463969003</v>
       </c>
     </row>
     <row r="4">
@@ -1468,10 +1468,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-360.8042063068489</v>
+        <v>-360.8042062634011</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7990671191657447</v>
+        <v>0.7990671191960127</v>
       </c>
     </row>
     <row r="5">
@@ -1481,10 +1481,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-107.914853969996</v>
+        <v>-107.9148537885663</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9393296530528006</v>
+        <v>0.939329653163021</v>
       </c>
     </row>
     <row r="6">
@@ -1494,10 +1494,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1724.466859640051</v>
+        <v>-1724.466859480219</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01389506988054275</v>
+        <v>0.01389506988956504</v>
       </c>
     </row>
     <row r="7">
@@ -1507,10 +1507,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1205.405703877113</v>
+        <v>-1205.405703703073</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0711540624413842</v>
+        <v>0.0711540624806188</v>
       </c>
     </row>
     <row r="8">
@@ -1520,10 +1520,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>33.59531841304135</v>
+        <v>33.59531836041645</v>
       </c>
       <c r="C8" t="n">
-        <v>0.6480889293598358</v>
+        <v>0.6480889298704988</v>
       </c>
     </row>
     <row r="9">
@@ -1533,10 +1533,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-763.3684970458689</v>
+        <v>-763.3684970590185</v>
       </c>
       <c r="C9" t="n">
-        <v>1.508219301984817e-05</v>
+        <v>1.508219301581764e-05</v>
       </c>
     </row>
     <row r="10">
@@ -1546,10 +1546,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-15.81000441670265</v>
+        <v>-15.81000441414414</v>
       </c>
       <c r="C10" t="n">
-        <v>0.03147701903096151</v>
+        <v>0.03147701905787475</v>
       </c>
     </row>
     <row r="11">
@@ -1559,10 +1559,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.4947450873308</v>
+        <v>178.4947450674557</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0721754495341429</v>
+        <v>0.07217544956245171</v>
       </c>
     </row>
     <row r="12">
@@ -1572,10 +1572,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>854.7521499305057</v>
+        <v>854.7521500022035</v>
       </c>
       <c r="C12" t="n">
-        <v>3.512081390910265e-44</v>
+        <v>3.512081326624787e-44</v>
       </c>
     </row>
     <row r="13">
@@ -1585,10 +1585,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0101207945446956</v>
+        <v>1.012079442439438</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9129120613931473</v>
+        <v>0.9129120624231426</v>
       </c>
     </row>
     <row r="14">
@@ -1598,10 +1598,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001406047859478885</v>
+        <v>140.6047860356996</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1932458472466708</v>
+        <v>0.1932458470217366</v>
       </c>
     </row>
     <row r="15">
@@ -1611,10 +1611,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>32.69903416280695</v>
+        <v>32.6990341628054</v>
       </c>
       <c r="C15" t="n">
-        <v>5.520515227919102e-05</v>
+        <v>5.520515227922065e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1624,10 +1624,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2368.5274929242</v>
+        <v>-23.68527492924467</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05441815917557499</v>
+        <v>0.05441815917554791</v>
       </c>
     </row>
     <row r="17">
@@ -1637,10 +1637,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>211.2698309936941</v>
+        <v>2.112698309933643</v>
       </c>
       <c r="C17" t="n">
-        <v>0.7988603645733837</v>
+        <v>0.7988603645736909</v>
       </c>
     </row>
   </sheetData>
@@ -1686,10 +1686,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3975.511474633319</v>
+        <v>3975.511474656865</v>
       </c>
       <c r="C2" t="n">
-        <v>0.04372759488214549</v>
+        <v>0.04372759485840583</v>
       </c>
     </row>
     <row r="3">
@@ -1699,10 +1699,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>139.9010052545104</v>
+        <v>139.9010052441049</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9340291378162723</v>
+        <v>0.9340291378157594</v>
       </c>
     </row>
     <row r="4">
@@ -1712,10 +1712,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-2020.129620693633</v>
+        <v>-2020.129620703913</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1797969697338182</v>
+        <v>0.1797969696998949</v>
       </c>
     </row>
     <row r="5">
@@ -1725,10 +1725,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-1844.279218866018</v>
+        <v>-1844.279218887972</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2204546269671944</v>
+        <v>0.2204546268899866</v>
       </c>
     </row>
     <row r="6">
@@ -1738,10 +1738,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1582.733998665059</v>
+        <v>-1582.733998656787</v>
       </c>
       <c r="C6" t="n">
-        <v>0.02771868506482797</v>
+        <v>0.02771868506586517</v>
       </c>
     </row>
     <row r="7">
@@ -1751,10 +1751,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1396.132646914831</v>
+        <v>-1396.132646907814</v>
       </c>
       <c r="C7" t="n">
-        <v>0.04259549930687255</v>
+        <v>0.04259549930756235</v>
       </c>
     </row>
     <row r="8">
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40.31859128790364</v>
+        <v>40.3185912849882</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5703290534556339</v>
+        <v>0.5703290534786132</v>
       </c>
     </row>
     <row r="9">
@@ -1777,10 +1777,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-874.2929851943259</v>
+        <v>-874.2929851946735</v>
       </c>
       <c r="C9" t="n">
-        <v>4.579373483901947e-07</v>
+        <v>4.57937348394332e-07</v>
       </c>
     </row>
     <row r="10">
@@ -1790,10 +1790,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-17.0856263293275</v>
+        <v>-17.08562632940468</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01956875459187294</v>
+        <v>0.01956875459152762</v>
       </c>
     </row>
     <row r="11">
@@ -1803,10 +1803,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>64.1951767067218</v>
+        <v>64.19517669979209</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5107634434315507</v>
+        <v>0.5107634434685702</v>
       </c>
     </row>
     <row r="12">
@@ -1816,10 +1816,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>816.1649369285603</v>
+        <v>816.1649369276834</v>
       </c>
       <c r="C12" t="n">
-        <v>1.463260588081948e-42</v>
+        <v>1.463260590268585e-42</v>
       </c>
     </row>
     <row r="13">
@@ -1829,10 +1829,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.00123969877748947</v>
+        <v>-0.1239698776204676</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9889638902654584</v>
+        <v>0.9889638902768981</v>
       </c>
     </row>
     <row r="14">
@@ -1842,10 +1842,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>9.004070653852967e-05</v>
+        <v>90.04070673431934</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3920422411459218</v>
+        <v>0.3920422402643352</v>
       </c>
     </row>
     <row r="15">
@@ -1855,10 +1855,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>30.52573199148334</v>
+        <v>30.5257319914809</v>
       </c>
       <c r="C15" t="n">
-        <v>9.558929571576136e-05</v>
+        <v>9.558929571588568e-05</v>
       </c>
     </row>
     <row r="16">
@@ -1868,10 +1868,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2267.914121630711</v>
+        <v>-22.67914121630943</v>
       </c>
       <c r="C16" t="n">
-        <v>0.06150697879318079</v>
+        <v>0.06150697879315378</v>
       </c>
     </row>
     <row r="17">
@@ -1881,10 +1881,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.4065555419807</v>
+        <v>3.22406555541714</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6855549841227726</v>
+        <v>0.6855549841230191</v>
       </c>
     </row>
   </sheetData>
@@ -1930,10 +1930,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1892.952779369856</v>
+        <v>1892.952779204698</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3281201118131314</v>
+        <v>0.3281201118950516</v>
       </c>
     </row>
     <row r="3">
@@ -1943,10 +1943,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1106.595030239965</v>
+        <v>1106.595030495735</v>
       </c>
       <c r="C3" t="n">
-        <v>0.4837124064173236</v>
+        <v>0.4837124064182285</v>
       </c>
     </row>
     <row r="4">
@@ -1956,10 +1956,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-401.2605390820035</v>
+        <v>-401.260539233531</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7765020840912465</v>
+        <v>0.7765020839796599</v>
       </c>
     </row>
     <row r="5">
@@ -1969,10 +1969,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-329.6835385618469</v>
+        <v>-329.6835388438523</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8154703241324773</v>
+        <v>0.8154703239318494</v>
       </c>
     </row>
     <row r="6">
@@ -1982,10 +1982,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1123.491091447517</v>
+        <v>-1123.491091744792</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1302404566142754</v>
+        <v>0.1302404565106559</v>
       </c>
     </row>
     <row r="7">
@@ -1995,10 +1995,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-861.6041352264338</v>
+        <v>-861.6041354527592</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2252486401149111</v>
+        <v>0.225248639996392</v>
       </c>
     </row>
     <row r="8">
@@ -2008,10 +2008,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>67.1834313071863</v>
+        <v>67.18343143389932</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3584428346786005</v>
+        <v>0.3584428337921053</v>
       </c>
     </row>
     <row r="9">
@@ -2021,10 +2021,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-760.3257071559456</v>
+        <v>-760.325707129829</v>
       </c>
       <c r="C9" t="n">
-        <v>1.657371516404088e-05</v>
+        <v>1.657371517217771e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2034,10 +2034,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-20.70891719050039</v>
+        <v>-20.70891719464795</v>
       </c>
       <c r="C10" t="n">
-        <v>0.005510147746746078</v>
+        <v>0.005510147737829909</v>
       </c>
     </row>
     <row r="11">
@@ -2047,10 +2047,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>156.9149625598168</v>
+        <v>156.9149626018765</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1109111862911736</v>
+        <v>0.1109111862028176</v>
       </c>
     </row>
     <row r="12">
@@ -2060,10 +2060,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>851.932768741537</v>
+        <v>851.9327686740054</v>
       </c>
       <c r="C12" t="n">
-        <v>9.378895406385443e-45</v>
+        <v>9.378895631693285e-45</v>
       </c>
     </row>
     <row r="13">
@@ -2073,10 +2073,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.0514293564745984</v>
+        <v>-5.142935635599967</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5807700557278599</v>
+        <v>0.5807700566043628</v>
       </c>
     </row>
     <row r="14">
@@ -2086,10 +2086,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001791234279002121</v>
+        <v>179.1234279770113</v>
       </c>
       <c r="C14" t="n">
-        <v>0.09803320121808687</v>
+        <v>0.09803320109377643</v>
       </c>
     </row>
     <row r="15">
@@ -2099,10 +2099,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.03354427151582</v>
+        <v>27.03354427151101</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0008173009342159986</v>
+        <v>0.00081730093421788</v>
       </c>
     </row>
     <row r="16">
@@ -2112,10 +2112,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2412.087355536364</v>
+        <v>-24.12087355536682</v>
       </c>
       <c r="C16" t="n">
-        <v>0.05369449503447796</v>
+        <v>0.05369449503444586</v>
       </c>
     </row>
     <row r="17">
@@ -2125,10 +2125,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>547.1469484846209</v>
+        <v>5.471469484841862</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5227482165535882</v>
+        <v>0.5227482165539179</v>
       </c>
     </row>
   </sheetData>
@@ -2174,10 +2174,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2200.385336633353</v>
+        <v>2200.385336790479</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3003354387804443</v>
+        <v>0.3003354386921006</v>
       </c>
     </row>
     <row r="3">
@@ -2187,10 +2187,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>896.3077157495952</v>
+        <v>896.3077156437544</v>
       </c>
       <c r="C3" t="n">
-        <v>0.6288320070380906</v>
+        <v>0.6288320070380892</v>
       </c>
     </row>
     <row r="4">
@@ -2200,10 +2200,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-58.93909641134678</v>
+        <v>-58.93909661416069</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9717635611867633</v>
+        <v>0.971763561083324</v>
       </c>
     </row>
     <row r="5">
@@ -2213,10 +2213,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>293.1192438426311</v>
+        <v>293.1192435527164</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8604194634690272</v>
+        <v>0.8604194635615621</v>
       </c>
     </row>
     <row r="6">
@@ -2226,10 +2226,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1820.30723987926</v>
+        <v>-1820.307239976875</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01284517054352739</v>
+        <v>0.01284517053862828</v>
       </c>
     </row>
     <row r="7">
@@ -2239,10 +2239,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1481.30104157535</v>
+        <v>-1481.301041679717</v>
       </c>
       <c r="C7" t="n">
-        <v>0.03502468667192627</v>
+        <v>0.03502468666035124</v>
       </c>
     </row>
     <row r="8">
@@ -2252,10 +2252,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>16.05580126718544</v>
+        <v>16.05580126926085</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8249985354591709</v>
+        <v>0.8249985354373794</v>
       </c>
     </row>
     <row r="9">
@@ -2265,10 +2265,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-759.8930817256595</v>
+        <v>-759.8930817260612</v>
       </c>
       <c r="C9" t="n">
-        <v>1.344967765023693e-05</v>
+        <v>1.344967765017992e-05</v>
       </c>
     </row>
     <row r="10">
@@ -2278,10 +2278,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-16.63304899765813</v>
+        <v>-16.63304900225697</v>
       </c>
       <c r="C10" t="n">
-        <v>0.02297791182794801</v>
+        <v>0.02297791178680275</v>
       </c>
     </row>
     <row r="11">
@@ -2291,10 +2291,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>134.2273343286523</v>
+        <v>134.2273343860475</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1740945411992597</v>
+        <v>0.1740945410329112</v>
       </c>
     </row>
     <row r="12">
@@ -2304,10 +2304,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>849.9969350331351</v>
+        <v>849.9969349782996</v>
       </c>
       <c r="C12" t="n">
-        <v>2.890901659679411e-46</v>
+        <v>2.890901736159472e-46</v>
       </c>
     </row>
     <row r="13">
@@ -2317,10 +2317,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01295005685148033</v>
+        <v>-1.295005688502939</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8864767819129149</v>
+        <v>0.8864767816203889</v>
       </c>
     </row>
     <row r="14">
@@ -2330,10 +2330,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001547982144726004</v>
+        <v>154.7982146632721</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1445649555504072</v>
+        <v>0.1445649551855532</v>
       </c>
     </row>
     <row r="15">
@@ -2343,10 +2343,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>27.04072879828658</v>
+        <v>27.04072879828298</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0005150870882406273</v>
+        <v>0.0005150870882415552</v>
       </c>
     </row>
     <row r="16">
@@ -2356,10 +2356,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-2796.844890085613</v>
+        <v>-27.9684489008592</v>
       </c>
       <c r="C16" t="n">
-        <v>0.02306757492818497</v>
+        <v>0.02306757492816973</v>
       </c>
     </row>
     <row r="17">
@@ -2369,10 +2369,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-99.73445504575864</v>
+        <v>-0.9973445504605607</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9030569116963992</v>
+        <v>0.9030569116961116</v>
       </c>
     </row>
   </sheetData>
@@ -2418,10 +2418,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2896.279225386356</v>
+        <v>2896.279224619994</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1171166098187904</v>
+        <v>0.1171166100284068</v>
       </c>
     </row>
     <row r="3">
@@ -2431,10 +2431,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1408.098341716098</v>
+        <v>1408.098341898556</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3706341519875211</v>
+        <v>0.3706341519881629</v>
       </c>
     </row>
     <row r="4">
@@ -2444,10 +2444,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-709.4855557826261</v>
+        <v>-709.4855557693168</v>
       </c>
       <c r="C4" t="n">
-        <v>0.6056619837867652</v>
+        <v>0.6056619837969068</v>
       </c>
     </row>
     <row r="5">
@@ -2457,10 +2457,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-439.0127347078846</v>
+        <v>-439.0127347809694</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7493902262237987</v>
+        <v>0.749390226171085</v>
       </c>
     </row>
     <row r="6">
@@ -2470,10 +2470,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1457.183745767089</v>
+        <v>-1457.183746038963</v>
       </c>
       <c r="C6" t="n">
-        <v>0.03195087918515456</v>
+        <v>0.03195087915220023</v>
       </c>
     </row>
     <row r="7">
@@ -2483,10 +2483,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-1102.215525351046</v>
+        <v>-1102.215525545905</v>
       </c>
       <c r="C7" t="n">
-        <v>0.08922820895734414</v>
+        <v>0.08922820890249528</v>
       </c>
     </row>
     <row r="8">
@@ -2496,10 +2496,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>48.14995676665654</v>
+        <v>48.14995686833761</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5061020899214592</v>
+        <v>0.5061020890269202</v>
       </c>
     </row>
     <row r="9">
@@ -2509,10 +2509,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-822.7718601733131</v>
+        <v>-822.7718601609912</v>
       </c>
       <c r="C9" t="n">
-        <v>1.714781943039124e-06</v>
+        <v>1.714781943527734e-06</v>
       </c>
     </row>
     <row r="10">
@@ -2522,10 +2522,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-9.870217800736608</v>
+        <v>-9.870217798095076</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1748080037870555</v>
+        <v>0.1748080039010104</v>
       </c>
     </row>
     <row r="11">
@@ -2535,10 +2535,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.46912665865192</v>
+        <v>55.46912665541923</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5700044990996154</v>
+        <v>0.570004499121687</v>
       </c>
     </row>
     <row r="12">
@@ -2548,10 +2548,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>872.2624658936124</v>
+        <v>872.2624658703501</v>
       </c>
       <c r="C12" t="n">
-        <v>2.038183690540559e-49</v>
+        <v>2.038183708631169e-49</v>
       </c>
     </row>
     <row r="13">
@@ -2561,10 +2561,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-0.01395262561000612</v>
+        <v>-1.395262548666601</v>
       </c>
       <c r="C13" t="n">
-        <v>0.8748276494141091</v>
+        <v>0.8748276505126433</v>
       </c>
     </row>
     <row r="14">
@@ -2574,10 +2574,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0001788568429304869</v>
+        <v>178.8568429065665</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08392906973377279</v>
+        <v>0.08392906974022711</v>
       </c>
     </row>
     <row r="15">
@@ -2587,10 +2587,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>21.73785944607377</v>
+        <v>21.73785944607153</v>
       </c>
       <c r="C15" t="n">
-        <v>0.005379248379740348</v>
+        <v>0.005379248379745154</v>
       </c>
     </row>
     <row r="16">
@@ -2600,10 +2600,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-3892.520021881988</v>
+        <v>-38.9252002188235</v>
       </c>
       <c r="C16" t="n">
-        <v>0.001091560689194903</v>
+        <v>0.001091560689193702</v>
       </c>
     </row>
     <row r="17">
@@ -2613,10 +2613,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-31.9370180742917</v>
+        <v>-0.3193701807468319</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9680496885801682</v>
+        <v>0.9680496885797769</v>
       </c>
     </row>
   </sheetData>
